--- a/Step7_example_master_codelist_BNF_0301_0302_COPDrx_inhalers_clinicianinitials.xlsx
+++ b/Step7_example_master_codelist_BNF_0301_0302_COPDrx_inhalers_clinicianinitials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Group_work\Emily\Product_browsing_study_data\Codelists\Github_publication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas2.cc.ic.ac.uk\egraul\Github\drug-codelist-creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E968AFA8-DDB2-4387-BA34-251E97149397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D627A1-B447-43C0-BFFD-D0CC2B484A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="300" windowWidth="27540" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5000,9 +5000,6 @@
     <t>paeds_new</t>
   </si>
   <si>
-    <t>SearchA_gold</t>
-  </si>
-  <si>
     <t>finalcodelist_mapped+goldsearchA</t>
   </si>
   <si>
@@ -5016,6 +5013,9 @@
   </si>
   <si>
     <t>(mapped product codes from previous codelist)</t>
+  </si>
+  <si>
+    <t>SearchA_comprehensive</t>
   </si>
 </sst>
 </file>
@@ -5181,6 +5181,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5192,12 +5198,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5517,7 +5517,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5525,7 +5525,7 @@
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="9" width="6.140625" customWidth="1"/>
-    <col min="10" max="10" width="11" style="28" customWidth="1"/>
+    <col min="10" max="10" width="11" style="24" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" style="5" customWidth="1"/>
     <col min="12" max="18" width="10.7109375" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" style="12" customWidth="1"/>
@@ -5563,7 +5563,7 @@
       <c r="I1" t="s">
         <v>1622</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="24" t="s">
         <v>1627</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -5609,16 +5609,16 @@
         <v>1649</v>
       </c>
       <c r="Y1" s="10" t="s">
+        <v>1655</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>1660</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>1656</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>1655</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>1658</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -5649,7 +5649,7 @@
       <c r="I2" t="s">
         <v>933</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="24">
         <v>1000</v>
       </c>
       <c r="K2" s="5" t="s">
@@ -5731,8 +5731,8 @@
       <c r="I3" t="s">
         <v>933</v>
       </c>
-      <c r="J3" s="28" t="s">
-        <v>1659</v>
+      <c r="J3" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>1628</v>
@@ -5813,7 +5813,7 @@
       <c r="I4" t="s">
         <v>1623</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="24">
         <v>3000</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -5897,7 +5897,7 @@
       <c r="I5" t="s">
         <v>933</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="24">
         <v>20000</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -5979,7 +5979,7 @@
       <c r="I6" t="s">
         <v>1623</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="24">
         <v>300000</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -6063,7 +6063,7 @@
       <c r="I7" t="s">
         <v>933</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="24">
         <v>80000</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -6145,7 +6145,7 @@
       <c r="I8" t="s">
         <v>1623</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="24">
         <v>100000</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -6229,7 +6229,7 @@
       <c r="I9" t="s">
         <v>933</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="24">
         <v>600000</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -6311,7 +6311,7 @@
       <c r="I10" t="s">
         <v>1623</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="24">
         <v>700000</v>
       </c>
       <c r="K10" s="5" t="s">
@@ -6395,7 +6395,7 @@
       <c r="I11" t="s">
         <v>933</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="24">
         <v>300</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -6475,7 +6475,7 @@
       <c r="I12" t="s">
         <v>1623</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="24">
         <v>900000</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -6559,7 +6559,7 @@
       <c r="I13" t="s">
         <v>933</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="24">
         <v>60000</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -6641,7 +6641,7 @@
       <c r="I14" t="s">
         <v>1623</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="24">
         <v>200000</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -6725,7 +6725,7 @@
       <c r="I15" t="s">
         <v>1623</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="24">
         <v>3000000</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -6809,7 +6809,7 @@
       <c r="I16" t="s">
         <v>1623</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="24">
         <v>2000000</v>
       </c>
       <c r="K16" s="5" t="s">
@@ -6893,7 +6893,7 @@
       <c r="I17" t="s">
         <v>1623</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="24">
         <v>50000</v>
       </c>
       <c r="K17" s="5" t="s">
@@ -6977,7 +6977,7 @@
       <c r="I18" t="s">
         <v>1623</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="24">
         <v>200000</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -7061,7 +7061,7 @@
       <c r="I19" t="s">
         <v>1623</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="24">
         <v>5000</v>
       </c>
       <c r="K19" s="5" t="s">
@@ -7145,7 +7145,7 @@
       <c r="I20" t="s">
         <v>1623</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="24">
         <v>30000</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -7229,7 +7229,7 @@
       <c r="I21" t="s">
         <v>1623</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="24">
         <v>1000</v>
       </c>
       <c r="K21" s="5" t="s">
@@ -7313,8 +7313,8 @@
       <c r="I22" t="s">
         <v>933</v>
       </c>
-      <c r="J22" s="28" t="s">
-        <v>1659</v>
+      <c r="J22" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>1628</v>
@@ -7395,8 +7395,8 @@
       <c r="I23" t="s">
         <v>933</v>
       </c>
-      <c r="J23" s="28" t="s">
-        <v>1659</v>
+      <c r="J23" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>1628</v>
@@ -7477,7 +7477,7 @@
       <c r="I24" t="s">
         <v>1623</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="24">
         <v>10000</v>
       </c>
       <c r="K24" s="5" t="s">
@@ -7561,7 +7561,7 @@
       <c r="I25" t="s">
         <v>1623</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="24">
         <v>50000</v>
       </c>
       <c r="K25" s="5" t="s">
@@ -7645,7 +7645,7 @@
       <c r="I26" t="s">
         <v>933</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="24">
         <v>80000</v>
       </c>
       <c r="K26" s="5" t="s">
@@ -7727,7 +7727,7 @@
       <c r="I27" t="s">
         <v>933</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="24">
         <v>20000</v>
       </c>
       <c r="K27" s="5" t="s">
@@ -7807,7 +7807,7 @@
       <c r="I28" t="s">
         <v>933</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="24">
         <v>3000</v>
       </c>
       <c r="K28" s="5" t="s">
@@ -7887,7 +7887,7 @@
       <c r="I29" t="s">
         <v>1623</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="24">
         <v>90000</v>
       </c>
       <c r="K29" s="5" t="s">
@@ -7971,7 +7971,7 @@
       <c r="I30" t="s">
         <v>1623</v>
       </c>
-      <c r="J30" s="28">
+      <c r="J30" s="24">
         <v>50000</v>
       </c>
       <c r="K30" s="5" t="s">
@@ -8055,7 +8055,7 @@
       <c r="I31" t="s">
         <v>1623</v>
       </c>
-      <c r="J31" s="28">
+      <c r="J31" s="24">
         <v>300000</v>
       </c>
       <c r="K31" s="5" t="s">
@@ -8139,7 +8139,7 @@
       <c r="I32" t="s">
         <v>1623</v>
       </c>
-      <c r="J32" s="28">
+      <c r="J32" s="24">
         <v>50000</v>
       </c>
       <c r="K32" s="5" t="s">
@@ -8223,7 +8223,7 @@
       <c r="I33" t="s">
         <v>1623</v>
       </c>
-      <c r="J33" s="28">
+      <c r="J33" s="24">
         <v>30000</v>
       </c>
       <c r="K33" s="5" t="s">
@@ -8307,7 +8307,7 @@
       <c r="I34" s="7" t="s">
         <v>1623</v>
       </c>
-      <c r="J34" s="29">
+      <c r="J34" s="25">
         <v>40000</v>
       </c>
       <c r="K34" s="22">
@@ -8391,7 +8391,7 @@
       <c r="I35" t="s">
         <v>933</v>
       </c>
-      <c r="J35" s="28">
+      <c r="J35" s="24">
         <v>600</v>
       </c>
       <c r="K35" s="5" t="s">
@@ -8471,7 +8471,7 @@
       <c r="I36" t="s">
         <v>933</v>
       </c>
-      <c r="J36" s="28">
+      <c r="J36" s="24">
         <v>90000</v>
       </c>
       <c r="K36" s="5" t="s">
@@ -8551,7 +8551,7 @@
       <c r="I37" t="s">
         <v>933</v>
       </c>
-      <c r="J37" s="28">
+      <c r="J37" s="24">
         <v>4000000</v>
       </c>
       <c r="K37" s="5" t="s">
@@ -8631,7 +8631,7 @@
       <c r="I38" t="s">
         <v>933</v>
       </c>
-      <c r="J38" s="28">
+      <c r="J38" s="24">
         <v>200000</v>
       </c>
       <c r="K38" s="5" t="s">
@@ -8711,7 +8711,7 @@
       <c r="I39" t="s">
         <v>933</v>
       </c>
-      <c r="J39" s="28">
+      <c r="J39" s="24">
         <v>700000</v>
       </c>
       <c r="K39" s="5" t="s">
@@ -8793,7 +8793,7 @@
       <c r="I40" t="s">
         <v>1623</v>
       </c>
-      <c r="J40" s="28">
+      <c r="J40" s="24">
         <v>1000000</v>
       </c>
       <c r="K40" s="5" t="s">
@@ -8877,7 +8877,7 @@
       <c r="I41" t="s">
         <v>933</v>
       </c>
-      <c r="J41" s="28">
+      <c r="J41" s="24">
         <v>300000</v>
       </c>
       <c r="K41" s="5" t="s">
@@ -8959,7 +8959,7 @@
       <c r="I42" t="s">
         <v>1623</v>
       </c>
-      <c r="J42" s="28">
+      <c r="J42" s="24">
         <v>30000000</v>
       </c>
       <c r="K42" s="5" t="s">
@@ -9043,7 +9043,7 @@
       <c r="I43" t="s">
         <v>933</v>
       </c>
-      <c r="J43" s="28">
+      <c r="J43" s="24">
         <v>100000</v>
       </c>
       <c r="K43" s="5" t="s">
@@ -9125,7 +9125,7 @@
       <c r="I44" t="s">
         <v>933</v>
       </c>
-      <c r="J44" s="28">
+      <c r="J44" s="24">
         <v>400000</v>
       </c>
       <c r="K44" s="5" t="s">
@@ -9207,7 +9207,7 @@
       <c r="I45" t="s">
         <v>933</v>
       </c>
-      <c r="J45" s="28">
+      <c r="J45" s="24">
         <v>100000</v>
       </c>
       <c r="K45" s="5" t="s">
@@ -9289,7 +9289,7 @@
       <c r="I46" t="s">
         <v>933</v>
       </c>
-      <c r="J46" s="28">
+      <c r="J46" s="24">
         <v>300000</v>
       </c>
       <c r="K46" s="5" t="s">
@@ -9371,7 +9371,7 @@
       <c r="I47" t="s">
         <v>933</v>
       </c>
-      <c r="J47" s="28">
+      <c r="J47" s="24">
         <v>20000</v>
       </c>
       <c r="K47" s="5" t="s">
@@ -9451,7 +9451,7 @@
       <c r="I48" t="s">
         <v>933</v>
       </c>
-      <c r="J48" s="28">
+      <c r="J48" s="24">
         <v>40000</v>
       </c>
       <c r="K48" s="5" t="s">
@@ -9531,7 +9531,7 @@
       <c r="I49" t="s">
         <v>1623</v>
       </c>
-      <c r="J49" s="28">
+      <c r="J49" s="24">
         <v>4000000</v>
       </c>
       <c r="K49" s="5" t="s">
@@ -9615,7 +9615,7 @@
       <c r="I50" t="s">
         <v>933</v>
       </c>
-      <c r="J50" s="28">
+      <c r="J50" s="24">
         <v>10000</v>
       </c>
       <c r="K50" s="5" t="s">
@@ -9697,7 +9697,7 @@
       <c r="I51" t="s">
         <v>933</v>
       </c>
-      <c r="J51" s="28">
+      <c r="J51" s="24">
         <v>600000</v>
       </c>
       <c r="K51" s="5" t="s">
@@ -9779,7 +9779,7 @@
       <c r="I52" t="s">
         <v>933</v>
       </c>
-      <c r="J52" s="28">
+      <c r="J52" s="24">
         <v>9000</v>
       </c>
       <c r="K52" s="5" t="s">
@@ -9861,7 +9861,7 @@
       <c r="I53" t="s">
         <v>933</v>
       </c>
-      <c r="J53" s="28">
+      <c r="J53" s="24">
         <v>2000</v>
       </c>
       <c r="K53" s="5" t="s">
@@ -9941,7 +9941,7 @@
       <c r="I54" t="s">
         <v>933</v>
       </c>
-      <c r="J54" s="28">
+      <c r="J54" s="24">
         <v>400</v>
       </c>
       <c r="K54" s="5" t="s">
@@ -10021,7 +10021,7 @@
       <c r="I55" t="s">
         <v>933</v>
       </c>
-      <c r="J55" s="28">
+      <c r="J55" s="24">
         <v>9000</v>
       </c>
       <c r="K55" s="5" t="s">
@@ -10101,7 +10101,7 @@
       <c r="I56" t="s">
         <v>933</v>
       </c>
-      <c r="J56" s="28">
+      <c r="J56" s="24">
         <v>20000</v>
       </c>
       <c r="K56" s="5" t="s">
@@ -10181,7 +10181,7 @@
       <c r="I57" t="s">
         <v>933</v>
       </c>
-      <c r="J57" s="28">
+      <c r="J57" s="24">
         <v>400000</v>
       </c>
       <c r="K57" s="5" t="s">
@@ -10261,7 +10261,7 @@
       <c r="I58" t="s">
         <v>933</v>
       </c>
-      <c r="J58" s="28">
+      <c r="J58" s="24">
         <v>100000</v>
       </c>
       <c r="K58" s="5" t="s">
@@ -10341,7 +10341,7 @@
       <c r="I59" t="s">
         <v>933</v>
       </c>
-      <c r="J59" s="28">
+      <c r="J59" s="24">
         <v>4000</v>
       </c>
       <c r="K59" s="5" t="s">
@@ -10421,7 +10421,7 @@
       <c r="I60" t="s">
         <v>933</v>
       </c>
-      <c r="J60" s="28">
+      <c r="J60" s="24">
         <v>2000</v>
       </c>
       <c r="K60" s="5" t="s">
@@ -10501,7 +10501,7 @@
       <c r="I61" t="s">
         <v>933</v>
       </c>
-      <c r="J61" s="28">
+      <c r="J61" s="24">
         <v>900</v>
       </c>
       <c r="K61" s="5" t="s">
@@ -10581,7 +10581,7 @@
       <c r="I62" t="s">
         <v>933</v>
       </c>
-      <c r="J62" s="28">
+      <c r="J62" s="24">
         <v>9000</v>
       </c>
       <c r="K62" s="5" t="s">
@@ -10661,7 +10661,7 @@
       <c r="I63" t="s">
         <v>933</v>
       </c>
-      <c r="J63" s="28">
+      <c r="J63" s="24">
         <v>6000</v>
       </c>
       <c r="K63" s="5" t="s">
@@ -10741,7 +10741,7 @@
       <c r="I64" t="s">
         <v>933</v>
       </c>
-      <c r="J64" s="28">
+      <c r="J64" s="24">
         <v>90000</v>
       </c>
       <c r="K64" s="5" t="s">
@@ -10821,7 +10821,7 @@
       <c r="I65" t="s">
         <v>933</v>
       </c>
-      <c r="J65" s="28">
+      <c r="J65" s="24">
         <v>4000</v>
       </c>
       <c r="K65" s="5" t="s">
@@ -10901,7 +10901,7 @@
       <c r="I66" t="s">
         <v>933</v>
       </c>
-      <c r="J66" s="28">
+      <c r="J66" s="24">
         <v>2000</v>
       </c>
       <c r="K66" s="5" t="s">
@@ -10981,8 +10981,8 @@
       <c r="I67" t="s">
         <v>933</v>
       </c>
-      <c r="J67" s="28" t="s">
-        <v>1659</v>
+      <c r="J67" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>933</v>
@@ -11061,7 +11061,7 @@
       <c r="I68" t="s">
         <v>933</v>
       </c>
-      <c r="J68" s="28">
+      <c r="J68" s="24">
         <v>50000</v>
       </c>
       <c r="K68" s="5" t="s">
@@ -11141,8 +11141,8 @@
       <c r="I69" t="s">
         <v>933</v>
       </c>
-      <c r="J69" s="28" t="s">
-        <v>1659</v>
+      <c r="J69" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>933</v>
@@ -11221,7 +11221,7 @@
       <c r="I70" t="s">
         <v>933</v>
       </c>
-      <c r="J70" s="28">
+      <c r="J70" s="24">
         <v>3000000</v>
       </c>
       <c r="K70" s="5" t="s">
@@ -11301,8 +11301,8 @@
       <c r="I71" t="s">
         <v>933</v>
       </c>
-      <c r="J71" s="28" t="s">
-        <v>1659</v>
+      <c r="J71" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>933</v>
@@ -11381,7 +11381,7 @@
       <c r="I72" t="s">
         <v>1623</v>
       </c>
-      <c r="J72" s="28">
+      <c r="J72" s="24">
         <v>200000</v>
       </c>
       <c r="K72" s="5" t="s">
@@ -11465,7 +11465,7 @@
       <c r="I73" t="s">
         <v>933</v>
       </c>
-      <c r="J73" s="28">
+      <c r="J73" s="24">
         <v>200000</v>
       </c>
       <c r="K73" s="5" t="s">
@@ -11547,7 +11547,7 @@
       <c r="I74" t="s">
         <v>933</v>
       </c>
-      <c r="J74" s="28">
+      <c r="J74" s="24">
         <v>40000</v>
       </c>
       <c r="K74" s="5" t="s">
@@ -11629,7 +11629,7 @@
       <c r="I75" t="s">
         <v>933</v>
       </c>
-      <c r="J75" s="28">
+      <c r="J75" s="24">
         <v>300000</v>
       </c>
       <c r="K75" s="5" t="s">
@@ -11711,7 +11711,7 @@
       <c r="I76" t="s">
         <v>933</v>
       </c>
-      <c r="J76" s="28">
+      <c r="J76" s="24">
         <v>7000</v>
       </c>
       <c r="K76" s="5" t="s">
@@ -11793,7 +11793,7 @@
       <c r="I77" t="s">
         <v>1623</v>
       </c>
-      <c r="J77" s="28">
+      <c r="J77" s="24">
         <v>1000000</v>
       </c>
       <c r="K77" s="5" t="s">
@@ -11877,7 +11877,7 @@
       <c r="I78" t="s">
         <v>933</v>
       </c>
-      <c r="J78" s="28">
+      <c r="J78" s="24">
         <v>70000</v>
       </c>
       <c r="K78" s="5" t="s">
@@ -11959,7 +11959,7 @@
       <c r="I79" t="s">
         <v>933</v>
       </c>
-      <c r="J79" s="28">
+      <c r="J79" s="24">
         <v>60000</v>
       </c>
       <c r="K79" s="5" t="s">
@@ -12041,7 +12041,7 @@
       <c r="I80" t="s">
         <v>933</v>
       </c>
-      <c r="J80" s="28">
+      <c r="J80" s="24">
         <v>100000</v>
       </c>
       <c r="K80" s="5" t="s">
@@ -12123,7 +12123,7 @@
       <c r="I81" t="s">
         <v>933</v>
       </c>
-      <c r="J81" s="28">
+      <c r="J81" s="24">
         <v>3000</v>
       </c>
       <c r="K81" s="5" t="s">
@@ -12205,7 +12205,7 @@
       <c r="I82" t="s">
         <v>1623</v>
       </c>
-      <c r="J82" s="28">
+      <c r="J82" s="24">
         <v>60000000</v>
       </c>
       <c r="K82" s="5" t="s">
@@ -12289,7 +12289,7 @@
       <c r="I83" t="s">
         <v>1623</v>
       </c>
-      <c r="J83" s="28">
+      <c r="J83" s="24">
         <v>8000000</v>
       </c>
       <c r="K83" s="5" t="s">
@@ -12373,7 +12373,7 @@
       <c r="I84" t="s">
         <v>1623</v>
       </c>
-      <c r="J84" s="28">
+      <c r="J84" s="24">
         <v>100000</v>
       </c>
       <c r="K84" s="5" t="s">
@@ -12457,7 +12457,7 @@
       <c r="I85" t="s">
         <v>1623</v>
       </c>
-      <c r="J85" s="28">
+      <c r="J85" s="24">
         <v>3000</v>
       </c>
       <c r="K85" s="5" t="s">
@@ -12541,7 +12541,7 @@
       <c r="I86" t="s">
         <v>1623</v>
       </c>
-      <c r="J86" s="28">
+      <c r="J86" s="24">
         <v>6000</v>
       </c>
       <c r="K86" s="5" t="s">
@@ -12625,7 +12625,7 @@
       <c r="I87" t="s">
         <v>1623</v>
       </c>
-      <c r="J87" s="28">
+      <c r="J87" s="24">
         <v>5000000</v>
       </c>
       <c r="K87" s="5" t="s">
@@ -12709,7 +12709,7 @@
       <c r="I88" t="s">
         <v>1623</v>
       </c>
-      <c r="J88" s="28">
+      <c r="J88" s="24">
         <v>1000000</v>
       </c>
       <c r="K88" s="5" t="s">
@@ -12793,7 +12793,7 @@
       <c r="I89" t="s">
         <v>1623</v>
       </c>
-      <c r="J89" s="28">
+      <c r="J89" s="24">
         <v>4000</v>
       </c>
       <c r="K89" s="5" t="s">
@@ -12877,7 +12877,7 @@
       <c r="I90" t="s">
         <v>1623</v>
       </c>
-      <c r="J90" s="28">
+      <c r="J90" s="24">
         <v>4000</v>
       </c>
       <c r="K90" s="5" t="s">
@@ -12961,7 +12961,7 @@
       <c r="I91" t="s">
         <v>933</v>
       </c>
-      <c r="J91" s="28">
+      <c r="J91" s="24">
         <v>200</v>
       </c>
       <c r="K91" s="5" t="s">
@@ -13041,7 +13041,7 @@
       <c r="I92" t="s">
         <v>933</v>
       </c>
-      <c r="J92" s="28">
+      <c r="J92" s="24">
         <v>60000</v>
       </c>
       <c r="K92" s="5" t="s">
@@ -13121,7 +13121,7 @@
       <c r="I93" t="s">
         <v>1623</v>
       </c>
-      <c r="J93" s="28">
+      <c r="J93" s="24">
         <v>100000</v>
       </c>
       <c r="K93" s="5" t="s">
@@ -13205,7 +13205,7 @@
       <c r="I94" t="s">
         <v>933</v>
       </c>
-      <c r="J94" s="28">
+      <c r="J94" s="24">
         <v>100000</v>
       </c>
       <c r="K94" s="5" t="s">
@@ -13285,7 +13285,7 @@
       <c r="I95" t="s">
         <v>933</v>
       </c>
-      <c r="J95" s="28">
+      <c r="J95" s="24">
         <v>200000</v>
       </c>
       <c r="K95" s="5" t="s">
@@ -13365,7 +13365,7 @@
       <c r="I96" t="s">
         <v>1623</v>
       </c>
-      <c r="J96" s="28">
+      <c r="J96" s="24">
         <v>1000000</v>
       </c>
       <c r="K96" s="5" t="s">
@@ -13449,7 +13449,7 @@
       <c r="I97" t="s">
         <v>1623</v>
       </c>
-      <c r="J97" s="28">
+      <c r="J97" s="24">
         <v>2000000</v>
       </c>
       <c r="K97" s="5" t="s">
@@ -13533,7 +13533,7 @@
       <c r="I98" t="s">
         <v>1623</v>
       </c>
-      <c r="J98" s="28">
+      <c r="J98" s="24">
         <v>70000</v>
       </c>
       <c r="K98" s="5" t="s">
@@ -13617,7 +13617,7 @@
       <c r="I99" t="s">
         <v>933</v>
       </c>
-      <c r="J99" s="28">
+      <c r="J99" s="24">
         <v>200</v>
       </c>
       <c r="K99" s="5" t="s">
@@ -13697,7 +13697,7 @@
       <c r="I100" t="s">
         <v>933</v>
       </c>
-      <c r="J100" s="28">
+      <c r="J100" s="24">
         <v>400</v>
       </c>
       <c r="K100" s="5" t="s">
@@ -13777,7 +13777,7 @@
       <c r="I101" t="s">
         <v>933</v>
       </c>
-      <c r="J101" s="28">
+      <c r="J101" s="24">
         <v>30000</v>
       </c>
       <c r="K101" s="5" t="s">
@@ -13857,8 +13857,8 @@
       <c r="I102" t="s">
         <v>933</v>
       </c>
-      <c r="J102" s="28" t="s">
-        <v>1659</v>
+      <c r="J102" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>933</v>
@@ -13937,8 +13937,8 @@
       <c r="I103" t="s">
         <v>933</v>
       </c>
-      <c r="J103" s="28" t="s">
-        <v>1659</v>
+      <c r="J103" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K103" s="5" t="s">
         <v>933</v>
@@ -14017,7 +14017,7 @@
       <c r="I104" t="s">
         <v>933</v>
       </c>
-      <c r="J104" s="28">
+      <c r="J104" s="24">
         <v>4000</v>
       </c>
       <c r="K104" s="5" t="s">
@@ -14097,7 +14097,7 @@
       <c r="I105" t="s">
         <v>933</v>
       </c>
-      <c r="J105" s="28">
+      <c r="J105" s="24">
         <v>10000</v>
       </c>
       <c r="K105" s="5" t="s">
@@ -14179,7 +14179,7 @@
       <c r="I106" t="s">
         <v>1623</v>
       </c>
-      <c r="J106" s="28">
+      <c r="J106" s="24">
         <v>100000</v>
       </c>
       <c r="K106" s="5" t="s">
@@ -14263,7 +14263,7 @@
       <c r="I107" t="s">
         <v>1623</v>
       </c>
-      <c r="J107" s="28">
+      <c r="J107" s="24">
         <v>600000</v>
       </c>
       <c r="K107" s="5" t="s">
@@ -14347,8 +14347,8 @@
       <c r="I108" t="s">
         <v>933</v>
       </c>
-      <c r="J108" s="28" t="s">
-        <v>1659</v>
+      <c r="J108" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>933</v>
@@ -14427,7 +14427,7 @@
       <c r="I109" t="s">
         <v>933</v>
       </c>
-      <c r="J109" s="28">
+      <c r="J109" s="24">
         <v>8000</v>
       </c>
       <c r="K109" s="5" t="s">
@@ -14507,7 +14507,7 @@
       <c r="I110" t="s">
         <v>933</v>
       </c>
-      <c r="J110" s="28">
+      <c r="J110" s="24">
         <v>60000</v>
       </c>
       <c r="K110" s="5" t="s">
@@ -14587,7 +14587,7 @@
       <c r="I111" t="s">
         <v>933</v>
       </c>
-      <c r="J111" s="28">
+      <c r="J111" s="24">
         <v>300</v>
       </c>
       <c r="K111" s="5" t="s">
@@ -14667,7 +14667,7 @@
       <c r="I112" t="s">
         <v>1623</v>
       </c>
-      <c r="J112" s="28">
+      <c r="J112" s="24">
         <v>2000000</v>
       </c>
       <c r="K112" s="5" t="s">
@@ -14751,7 +14751,7 @@
       <c r="I113" t="s">
         <v>933</v>
       </c>
-      <c r="J113" s="28">
+      <c r="J113" s="24">
         <v>20000</v>
       </c>
       <c r="K113" s="5" t="s">
@@ -14833,7 +14833,7 @@
       <c r="I114" t="s">
         <v>933</v>
       </c>
-      <c r="J114" s="28">
+      <c r="J114" s="24">
         <v>400000</v>
       </c>
       <c r="K114" s="5" t="s">
@@ -14915,8 +14915,8 @@
       <c r="I115" t="s">
         <v>933</v>
       </c>
-      <c r="J115" s="28" t="s">
-        <v>1659</v>
+      <c r="J115" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>933</v>
@@ -14995,7 +14995,7 @@
       <c r="I116" t="s">
         <v>933</v>
       </c>
-      <c r="J116" s="28">
+      <c r="J116" s="24">
         <v>300</v>
       </c>
       <c r="K116" s="5" t="s">
@@ -15075,7 +15075,7 @@
       <c r="I117" t="s">
         <v>933</v>
       </c>
-      <c r="J117" s="28">
+      <c r="J117" s="24">
         <v>6000</v>
       </c>
       <c r="K117" s="5" t="s">
@@ -15155,7 +15155,7 @@
       <c r="I118" t="s">
         <v>933</v>
       </c>
-      <c r="J118" s="28">
+      <c r="J118" s="24">
         <v>30000</v>
       </c>
       <c r="K118" s="5" t="s">
@@ -15237,8 +15237,8 @@
       <c r="I119" t="s">
         <v>933</v>
       </c>
-      <c r="J119" s="28" t="s">
-        <v>1659</v>
+      <c r="J119" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>933</v>
@@ -15319,7 +15319,7 @@
       <c r="I120" t="s">
         <v>933</v>
       </c>
-      <c r="J120" s="28">
+      <c r="J120" s="24">
         <v>800</v>
       </c>
       <c r="K120" s="5" t="s">
@@ -15399,7 +15399,7 @@
       <c r="I121" t="s">
         <v>1623</v>
       </c>
-      <c r="J121" s="28">
+      <c r="J121" s="24">
         <v>200000</v>
       </c>
       <c r="K121" s="5" t="s">
@@ -15483,7 +15483,7 @@
       <c r="I122" t="s">
         <v>1623</v>
       </c>
-      <c r="J122" s="28">
+      <c r="J122" s="24">
         <v>400000</v>
       </c>
       <c r="K122" s="5" t="s">
@@ -15567,7 +15567,7 @@
       <c r="I123" t="s">
         <v>1623</v>
       </c>
-      <c r="J123" s="28">
+      <c r="J123" s="24">
         <v>500000</v>
       </c>
       <c r="K123" s="5" t="s">
@@ -15651,7 +15651,7 @@
       <c r="I124" t="s">
         <v>933</v>
       </c>
-      <c r="J124" s="28">
+      <c r="J124" s="24">
         <v>1000</v>
       </c>
       <c r="K124" s="5" t="s">
@@ -15733,7 +15733,7 @@
       <c r="I125" t="s">
         <v>933</v>
       </c>
-      <c r="J125" s="28">
+      <c r="J125" s="24">
         <v>10000</v>
       </c>
       <c r="K125" s="5" t="s">
@@ -15813,7 +15813,7 @@
       <c r="I126" t="s">
         <v>933</v>
       </c>
-      <c r="J126" s="28">
+      <c r="J126" s="24">
         <v>10000</v>
       </c>
       <c r="K126" s="5" t="s">
@@ -15893,7 +15893,7 @@
       <c r="I127" t="s">
         <v>933</v>
       </c>
-      <c r="J127" s="28">
+      <c r="J127" s="24">
         <v>2000</v>
       </c>
       <c r="K127" s="5" t="s">
@@ -15973,7 +15973,7 @@
       <c r="I128" t="s">
         <v>933</v>
       </c>
-      <c r="J128" s="28">
+      <c r="J128" s="24">
         <v>300000</v>
       </c>
       <c r="K128" s="5" t="s">
@@ -16055,7 +16055,7 @@
       <c r="I129" t="s">
         <v>933</v>
       </c>
-      <c r="J129" s="28">
+      <c r="J129" s="24">
         <v>20000</v>
       </c>
       <c r="K129" s="5" t="s">
@@ -16137,7 +16137,7 @@
       <c r="I130" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="J130" s="29">
+      <c r="J130" s="25">
         <v>4000</v>
       </c>
       <c r="K130" s="8" t="s">
@@ -16219,7 +16219,7 @@
       <c r="I131" t="s">
         <v>1624</v>
       </c>
-      <c r="J131" s="28">
+      <c r="J131" s="24">
         <v>70000</v>
       </c>
       <c r="K131" s="5" t="s">
@@ -16303,7 +16303,7 @@
       <c r="I132" t="s">
         <v>1624</v>
       </c>
-      <c r="J132" s="28">
+      <c r="J132" s="24">
         <v>1000000</v>
       </c>
       <c r="K132" s="5" t="s">
@@ -16387,7 +16387,7 @@
       <c r="I133" t="s">
         <v>933</v>
       </c>
-      <c r="J133" s="28">
+      <c r="J133" s="24">
         <v>20000</v>
       </c>
       <c r="K133" s="5" t="s">
@@ -16469,7 +16469,7 @@
       <c r="I134" t="s">
         <v>1624</v>
       </c>
-      <c r="J134" s="28">
+      <c r="J134" s="24">
         <v>1000000</v>
       </c>
       <c r="K134" s="5" t="s">
@@ -16553,7 +16553,7 @@
       <c r="I135" t="s">
         <v>1624</v>
       </c>
-      <c r="J135" s="28">
+      <c r="J135" s="24">
         <v>8000000</v>
       </c>
       <c r="K135" s="5" t="s">
@@ -16637,7 +16637,7 @@
       <c r="I136" t="s">
         <v>933</v>
       </c>
-      <c r="J136" s="28">
+      <c r="J136" s="24">
         <v>70000</v>
       </c>
       <c r="K136" s="5" t="s">
@@ -16719,8 +16719,8 @@
       <c r="I137" t="s">
         <v>933</v>
       </c>
-      <c r="J137" s="28" t="s">
-        <v>1659</v>
+      <c r="J137" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K137" s="5" t="s">
         <v>933</v>
@@ -16801,8 +16801,8 @@
       <c r="I138" t="s">
         <v>933</v>
       </c>
-      <c r="J138" s="28" t="s">
-        <v>1659</v>
+      <c r="J138" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K138" s="5" t="s">
         <v>933</v>
@@ -16883,7 +16883,7 @@
       <c r="I139" t="s">
         <v>933</v>
       </c>
-      <c r="J139" s="28">
+      <c r="J139" s="24">
         <v>70000</v>
       </c>
       <c r="K139" s="5" t="s">
@@ -16965,7 +16965,7 @@
       <c r="I140" t="s">
         <v>1624</v>
       </c>
-      <c r="J140" s="28">
+      <c r="J140" s="24">
         <v>1000000</v>
       </c>
       <c r="K140" s="5" t="s">
@@ -17049,7 +17049,7 @@
       <c r="I141" t="s">
         <v>1624</v>
       </c>
-      <c r="J141" s="28">
+      <c r="J141" s="24">
         <v>300000</v>
       </c>
       <c r="K141" s="5" t="s">
@@ -17133,7 +17133,7 @@
       <c r="I142" t="s">
         <v>1624</v>
       </c>
-      <c r="J142" s="28">
+      <c r="J142" s="24">
         <v>1000000</v>
       </c>
       <c r="K142" s="5" t="s">
@@ -17217,7 +17217,7 @@
       <c r="I143" t="s">
         <v>1624</v>
       </c>
-      <c r="J143" s="28">
+      <c r="J143" s="24">
         <v>500000</v>
       </c>
       <c r="K143" s="5" t="s">
@@ -17301,7 +17301,7 @@
       <c r="I144" t="s">
         <v>1624</v>
       </c>
-      <c r="J144" s="28">
+      <c r="J144" s="24">
         <v>600000</v>
       </c>
       <c r="K144" s="5" t="s">
@@ -17385,7 +17385,7 @@
       <c r="I145" t="s">
         <v>1624</v>
       </c>
-      <c r="J145" s="28">
+      <c r="J145" s="24">
         <v>100000</v>
       </c>
       <c r="K145" s="5" t="s">
@@ -17469,8 +17469,8 @@
       <c r="I146" t="s">
         <v>933</v>
       </c>
-      <c r="J146" s="28" t="s">
-        <v>1659</v>
+      <c r="J146" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K146" s="5" t="s">
         <v>933</v>
@@ -17549,7 +17549,7 @@
       <c r="I147" t="s">
         <v>933</v>
       </c>
-      <c r="J147" s="28">
+      <c r="J147" s="24">
         <v>600</v>
       </c>
       <c r="K147" s="5" t="s">
@@ -17629,7 +17629,7 @@
       <c r="I148" t="s">
         <v>1624</v>
       </c>
-      <c r="J148" s="28">
+      <c r="J148" s="24">
         <v>400000</v>
       </c>
       <c r="K148" s="5" t="s">
@@ -17713,7 +17713,7 @@
       <c r="I149" t="s">
         <v>933</v>
       </c>
-      <c r="J149" s="28">
+      <c r="J149" s="24">
         <v>1000000</v>
       </c>
       <c r="K149" s="5" t="s">
@@ -17795,8 +17795,8 @@
       <c r="I150" t="s">
         <v>933</v>
       </c>
-      <c r="J150" s="28" t="s">
-        <v>1659</v>
+      <c r="J150" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K150" s="5" t="s">
         <v>933</v>
@@ -17877,7 +17877,7 @@
       <c r="I151" s="7" t="s">
         <v>1624</v>
       </c>
-      <c r="J151" s="29">
+      <c r="J151" s="25">
         <v>200000</v>
       </c>
       <c r="K151" s="8" t="s">
@@ -17961,8 +17961,8 @@
       <c r="I152" t="s">
         <v>933</v>
       </c>
-      <c r="J152" s="28" t="s">
-        <v>1659</v>
+      <c r="J152" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K152" s="5" t="s">
         <v>933</v>
@@ -18043,7 +18043,7 @@
       <c r="I153" t="s">
         <v>933</v>
       </c>
-      <c r="J153" s="28">
+      <c r="J153" s="24">
         <v>300000</v>
       </c>
       <c r="K153" s="5" t="s">
@@ -18125,7 +18125,7 @@
       <c r="I154" t="s">
         <v>1624</v>
       </c>
-      <c r="J154" s="28">
+      <c r="J154" s="24">
         <v>10000</v>
       </c>
       <c r="K154" s="5" t="s">
@@ -18209,7 +18209,7 @@
       <c r="I155" t="s">
         <v>933</v>
       </c>
-      <c r="J155" s="28">
+      <c r="J155" s="24">
         <v>20000</v>
       </c>
       <c r="K155" s="5" t="s">
@@ -18291,7 +18291,7 @@
       <c r="I156" t="s">
         <v>933</v>
       </c>
-      <c r="J156" s="28">
+      <c r="J156" s="24">
         <v>3000000</v>
       </c>
       <c r="K156" s="5" t="s">
@@ -18373,7 +18373,7 @@
       <c r="I157" t="s">
         <v>1624</v>
       </c>
-      <c r="J157" s="28">
+      <c r="J157" s="24">
         <v>900000</v>
       </c>
       <c r="K157" s="5" t="s">
@@ -18457,7 +18457,7 @@
       <c r="I158" t="s">
         <v>933</v>
       </c>
-      <c r="J158" s="28">
+      <c r="J158" s="24">
         <v>100000</v>
       </c>
       <c r="K158" s="5" t="s">
@@ -18539,8 +18539,8 @@
       <c r="I159" t="s">
         <v>933</v>
       </c>
-      <c r="J159" s="28" t="s">
-        <v>1659</v>
+      <c r="J159" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K159" s="5" t="s">
         <v>933</v>
@@ -18621,7 +18621,7 @@
       <c r="I160" t="s">
         <v>933</v>
       </c>
-      <c r="J160" s="28">
+      <c r="J160" s="24">
         <v>100000</v>
       </c>
       <c r="K160" s="5" t="s">
@@ -18703,7 +18703,7 @@
       <c r="I161" t="s">
         <v>933</v>
       </c>
-      <c r="J161" s="28">
+      <c r="J161" s="24">
         <v>8000</v>
       </c>
       <c r="K161" s="5" t="s">
@@ -18785,7 +18785,7 @@
       <c r="I162" t="s">
         <v>933</v>
       </c>
-      <c r="J162" s="28">
+      <c r="J162" s="24">
         <v>20000</v>
       </c>
       <c r="K162" s="5" t="s">
@@ -18867,7 +18867,7 @@
       <c r="I163" t="s">
         <v>933</v>
       </c>
-      <c r="J163" s="28">
+      <c r="J163" s="24">
         <v>700000</v>
       </c>
       <c r="K163" s="5" t="s">
@@ -18949,7 +18949,7 @@
       <c r="I164" t="s">
         <v>1624</v>
       </c>
-      <c r="J164" s="28">
+      <c r="J164" s="24">
         <v>600000</v>
       </c>
       <c r="K164" s="5" t="s">
@@ -19033,7 +19033,7 @@
       <c r="I165" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="J165" s="29">
+      <c r="J165" s="25">
         <v>90000</v>
       </c>
       <c r="K165" s="8" t="s">
@@ -19115,7 +19115,7 @@
       <c r="I166" t="s">
         <v>933</v>
       </c>
-      <c r="J166" s="28">
+      <c r="J166" s="24">
         <v>400000</v>
       </c>
       <c r="K166" s="5" t="s">
@@ -19197,7 +19197,7 @@
       <c r="I167" t="s">
         <v>933</v>
       </c>
-      <c r="J167" s="28">
+      <c r="J167" s="24">
         <v>70000</v>
       </c>
       <c r="K167" s="5" t="s">
@@ -19279,7 +19279,7 @@
       <c r="I168" t="s">
         <v>933</v>
       </c>
-      <c r="J168" s="28">
+      <c r="J168" s="24">
         <v>600000</v>
       </c>
       <c r="K168" s="5" t="s">
@@ -19361,7 +19361,7 @@
       <c r="I169" t="s">
         <v>933</v>
       </c>
-      <c r="J169" s="28">
+      <c r="J169" s="24">
         <v>50000</v>
       </c>
       <c r="K169" s="5" t="s">
@@ -19443,7 +19443,7 @@
       <c r="I170" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="J170" s="29">
+      <c r="J170" s="25">
         <v>2000000</v>
       </c>
       <c r="K170" s="8" t="s">
@@ -19525,8 +19525,8 @@
       <c r="I171" t="s">
         <v>933</v>
       </c>
-      <c r="J171" s="28" t="s">
-        <v>1659</v>
+      <c r="J171" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K171" s="5" t="s">
         <v>933</v>
@@ -19607,7 +19607,7 @@
       <c r="I172" t="s">
         <v>1625</v>
       </c>
-      <c r="J172" s="28">
+      <c r="J172" s="24">
         <v>50000</v>
       </c>
       <c r="K172" s="5" t="s">
@@ -19691,7 +19691,7 @@
       <c r="I173" t="s">
         <v>1625</v>
       </c>
-      <c r="J173" s="28">
+      <c r="J173" s="24">
         <v>300000</v>
       </c>
       <c r="K173" s="5" t="s">
@@ -19775,7 +19775,7 @@
       <c r="I174" t="s">
         <v>1625</v>
       </c>
-      <c r="J174" s="28">
+      <c r="J174" s="24">
         <v>20000</v>
       </c>
       <c r="K174" s="5" t="s">
@@ -19859,7 +19859,7 @@
       <c r="I175" t="s">
         <v>933</v>
       </c>
-      <c r="J175" s="28">
+      <c r="J175" s="24">
         <v>2000</v>
       </c>
       <c r="K175" s="5" t="s">
@@ -19941,7 +19941,7 @@
       <c r="I176" t="s">
         <v>933</v>
       </c>
-      <c r="J176" s="28">
+      <c r="J176" s="24">
         <v>20000</v>
       </c>
       <c r="K176" s="5" t="s">
@@ -20023,7 +20023,7 @@
       <c r="I177" t="s">
         <v>1625</v>
       </c>
-      <c r="J177" s="28">
+      <c r="J177" s="24">
         <v>200000</v>
       </c>
       <c r="K177" s="5" t="s">
@@ -20107,7 +20107,7 @@
       <c r="I178" t="s">
         <v>1625</v>
       </c>
-      <c r="J178" s="28">
+      <c r="J178" s="24">
         <v>20000</v>
       </c>
       <c r="K178" s="5" t="s">
@@ -20191,8 +20191,8 @@
       <c r="I179" t="s">
         <v>933</v>
       </c>
-      <c r="J179" s="28" t="s">
-        <v>1659</v>
+      <c r="J179" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K179" s="5" t="s">
         <v>933</v>
@@ -20273,7 +20273,7 @@
       <c r="I180" t="s">
         <v>933</v>
       </c>
-      <c r="J180" s="28">
+      <c r="J180" s="24">
         <v>200000</v>
       </c>
       <c r="K180" s="5" t="s">
@@ -20355,7 +20355,7 @@
       <c r="I181" t="s">
         <v>933</v>
       </c>
-      <c r="J181" s="28">
+      <c r="J181" s="24">
         <v>600</v>
       </c>
       <c r="K181" s="5" t="s">
@@ -20437,7 +20437,7 @@
       <c r="I182" t="s">
         <v>1625</v>
       </c>
-      <c r="J182" s="28">
+      <c r="J182" s="24">
         <v>700000</v>
       </c>
       <c r="K182" s="5" t="s">
@@ -20521,7 +20521,7 @@
       <c r="I183" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="J183" s="29">
+      <c r="J183" s="25">
         <v>30000</v>
       </c>
       <c r="K183" s="8" t="s">
@@ -20603,7 +20603,7 @@
       <c r="I184" t="s">
         <v>933</v>
       </c>
-      <c r="J184" s="28">
+      <c r="J184" s="24">
         <v>20000</v>
       </c>
       <c r="K184" s="5" t="s">
@@ -20685,7 +20685,7 @@
       <c r="I185" t="s">
         <v>933</v>
       </c>
-      <c r="J185" s="28">
+      <c r="J185" s="24">
         <v>1000</v>
       </c>
       <c r="K185" s="5" t="s">
@@ -20767,7 +20767,7 @@
       <c r="I186" t="s">
         <v>933</v>
       </c>
-      <c r="J186" s="28">
+      <c r="J186" s="24">
         <v>10000</v>
       </c>
       <c r="K186" s="5" t="s">
@@ -20849,7 +20849,7 @@
       <c r="I187" t="s">
         <v>933</v>
       </c>
-      <c r="J187" s="28">
+      <c r="J187" s="24">
         <v>70000</v>
       </c>
       <c r="K187" s="5" t="s">
@@ -20931,7 +20931,7 @@
       <c r="I188" t="s">
         <v>1626</v>
       </c>
-      <c r="J188" s="28">
+      <c r="J188" s="24">
         <v>300000</v>
       </c>
       <c r="K188" s="5" t="s">
@@ -21015,7 +21015,7 @@
       <c r="I189" t="s">
         <v>1626</v>
       </c>
-      <c r="J189" s="28">
+      <c r="J189" s="24">
         <v>2000000</v>
       </c>
       <c r="K189" s="5" t="s">
@@ -21099,7 +21099,7 @@
       <c r="I190" t="s">
         <v>1626</v>
       </c>
-      <c r="J190" s="28">
+      <c r="J190" s="24">
         <v>300000</v>
       </c>
       <c r="K190" s="5" t="s">
@@ -21183,7 +21183,7 @@
       <c r="I191" t="s">
         <v>1626</v>
       </c>
-      <c r="J191" s="28">
+      <c r="J191" s="24">
         <v>400000</v>
       </c>
       <c r="K191" s="5" t="s">
@@ -21267,7 +21267,7 @@
       <c r="I192" t="s">
         <v>1626</v>
       </c>
-      <c r="J192" s="28">
+      <c r="J192" s="24">
         <v>3000000</v>
       </c>
       <c r="K192" s="5" t="s">
@@ -21351,7 +21351,7 @@
       <c r="I193" t="s">
         <v>1626</v>
       </c>
-      <c r="J193" s="28">
+      <c r="J193" s="24">
         <v>600000</v>
       </c>
       <c r="K193" s="5" t="s">
@@ -21435,7 +21435,7 @@
       <c r="I194" t="s">
         <v>1626</v>
       </c>
-      <c r="J194" s="28">
+      <c r="J194" s="24">
         <v>7000</v>
       </c>
       <c r="K194" s="5" t="s">
@@ -21519,7 +21519,7 @@
       <c r="I195" t="s">
         <v>1626</v>
       </c>
-      <c r="J195" s="28">
+      <c r="J195" s="24">
         <v>20000</v>
       </c>
       <c r="K195" s="5" t="s">
@@ -21603,7 +21603,7 @@
       <c r="I196" t="s">
         <v>1626</v>
       </c>
-      <c r="J196" s="28">
+      <c r="J196" s="24">
         <v>20000</v>
       </c>
       <c r="K196" s="5" t="s">
@@ -21687,8 +21687,8 @@
       <c r="I197" t="s">
         <v>933</v>
       </c>
-      <c r="J197" s="28" t="s">
-        <v>1659</v>
+      <c r="J197" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K197" s="5" t="s">
         <v>933</v>
@@ -21767,8 +21767,8 @@
       <c r="I198" t="s">
         <v>933</v>
       </c>
-      <c r="J198" s="28" t="s">
-        <v>1659</v>
+      <c r="J198" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K198" s="5" t="s">
         <v>933</v>
@@ -21847,8 +21847,8 @@
       <c r="I199" t="s">
         <v>933</v>
       </c>
-      <c r="J199" s="28" t="s">
-        <v>1659</v>
+      <c r="J199" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K199" s="5" t="s">
         <v>933</v>
@@ -21927,7 +21927,7 @@
       <c r="I200" t="s">
         <v>933</v>
       </c>
-      <c r="J200" s="28">
+      <c r="J200" s="24">
         <v>2000</v>
       </c>
       <c r="K200" s="5" t="s">
@@ -22007,7 +22007,7 @@
       <c r="I201" t="s">
         <v>933</v>
       </c>
-      <c r="J201" s="28">
+      <c r="J201" s="24">
         <v>2000</v>
       </c>
       <c r="K201" s="5" t="s">
@@ -22087,7 +22087,7 @@
       <c r="I202" t="s">
         <v>933</v>
       </c>
-      <c r="J202" s="28">
+      <c r="J202" s="24">
         <v>100000</v>
       </c>
       <c r="K202" s="5" t="s">
@@ -22167,7 +22167,7 @@
       <c r="I203" t="s">
         <v>933</v>
       </c>
-      <c r="J203" s="28">
+      <c r="J203" s="24">
         <v>20000</v>
       </c>
       <c r="K203" s="5" t="s">
@@ -22247,7 +22247,7 @@
       <c r="I204" t="s">
         <v>933</v>
       </c>
-      <c r="J204" s="28">
+      <c r="J204" s="24">
         <v>100000</v>
       </c>
       <c r="K204" s="5" t="s">
@@ -22329,7 +22329,7 @@
       <c r="I205" t="s">
         <v>1626</v>
       </c>
-      <c r="J205" s="28">
+      <c r="J205" s="24">
         <v>500000</v>
       </c>
       <c r="K205" s="5" t="s">
@@ -22413,7 +22413,7 @@
       <c r="I206" t="s">
         <v>1626</v>
       </c>
-      <c r="J206" s="28">
+      <c r="J206" s="24">
         <v>300</v>
       </c>
       <c r="K206" s="5" t="s">
@@ -22497,7 +22497,7 @@
       <c r="I207" t="s">
         <v>933</v>
       </c>
-      <c r="J207" s="28">
+      <c r="J207" s="24">
         <v>4000</v>
       </c>
       <c r="K207" s="5" t="s">
@@ -22579,7 +22579,7 @@
       <c r="I208" t="s">
         <v>933</v>
       </c>
-      <c r="J208" s="28">
+      <c r="J208" s="24">
         <v>400000</v>
       </c>
       <c r="K208" s="5" t="s">
@@ -22661,7 +22661,7 @@
       <c r="I209" t="s">
         <v>1626</v>
       </c>
-      <c r="J209" s="28">
+      <c r="J209" s="24">
         <v>800000</v>
       </c>
       <c r="K209" s="5" t="s">
@@ -22745,7 +22745,7 @@
       <c r="I210" t="s">
         <v>933</v>
       </c>
-      <c r="J210" s="28">
+      <c r="J210" s="24">
         <v>3000</v>
       </c>
       <c r="K210" s="5" t="s">
@@ -22827,7 +22827,7 @@
       <c r="I211" t="s">
         <v>1626</v>
       </c>
-      <c r="J211" s="28">
+      <c r="J211" s="24">
         <v>300000</v>
       </c>
       <c r="K211" s="5" t="s">
@@ -22911,7 +22911,7 @@
       <c r="I212" t="s">
         <v>933</v>
       </c>
-      <c r="J212" s="28">
+      <c r="J212" s="24">
         <v>1000</v>
       </c>
       <c r="K212" s="5" t="s">
@@ -22988,7 +22988,7 @@
       <c r="I213" t="s">
         <v>933</v>
       </c>
-      <c r="J213" s="28">
+      <c r="J213" s="24">
         <v>2000</v>
       </c>
       <c r="K213" s="5" t="s">
@@ -23068,7 +23068,7 @@
       <c r="I214" t="s">
         <v>933</v>
       </c>
-      <c r="J214" s="28">
+      <c r="J214" s="24">
         <v>8000</v>
       </c>
       <c r="K214" s="5" t="s">
@@ -23148,7 +23148,7 @@
       <c r="I215" t="s">
         <v>933</v>
       </c>
-      <c r="J215" s="28">
+      <c r="J215" s="24">
         <v>5000</v>
       </c>
       <c r="K215" s="5" t="s">
@@ -23228,7 +23228,7 @@
       <c r="I216" t="s">
         <v>933</v>
       </c>
-      <c r="J216" s="28">
+      <c r="J216" s="24">
         <v>6000</v>
       </c>
       <c r="K216" s="5" t="s">
@@ -23308,7 +23308,7 @@
       <c r="I217" t="s">
         <v>933</v>
       </c>
-      <c r="J217" s="28">
+      <c r="J217" s="24">
         <v>5000</v>
       </c>
       <c r="K217" s="5" t="s">
@@ -23388,7 +23388,7 @@
       <c r="I218" t="s">
         <v>1626</v>
       </c>
-      <c r="J218" s="28">
+      <c r="J218" s="24">
         <v>8000</v>
       </c>
       <c r="K218" s="5" t="s">
@@ -23472,7 +23472,7 @@
       <c r="I219" t="s">
         <v>1626</v>
       </c>
-      <c r="J219" s="28">
+      <c r="J219" s="24">
         <v>6000</v>
       </c>
       <c r="K219" s="5" t="s">
@@ -23556,7 +23556,7 @@
       <c r="I220" t="s">
         <v>933</v>
       </c>
-      <c r="J220" s="28">
+      <c r="J220" s="24">
         <v>20000</v>
       </c>
       <c r="K220" s="5" t="s">
@@ -23638,7 +23638,7 @@
       <c r="I221" t="s">
         <v>933</v>
       </c>
-      <c r="J221" s="28">
+      <c r="J221" s="24">
         <v>40000</v>
       </c>
       <c r="K221" s="5" t="s">
@@ -23720,7 +23720,7 @@
       <c r="I222" t="s">
         <v>1626</v>
       </c>
-      <c r="J222" s="28">
+      <c r="J222" s="24">
         <v>100000</v>
       </c>
       <c r="K222" s="5" t="s">
@@ -23804,7 +23804,7 @@
       <c r="I223" t="s">
         <v>933</v>
       </c>
-      <c r="J223" s="28">
+      <c r="J223" s="24">
         <v>4000</v>
       </c>
       <c r="K223" s="5" t="s">
@@ -23886,7 +23886,7 @@
       <c r="I224" t="s">
         <v>1626</v>
       </c>
-      <c r="J224" s="28">
+      <c r="J224" s="24">
         <v>10000</v>
       </c>
       <c r="K224" s="5" t="s">
@@ -23970,7 +23970,7 @@
       <c r="I225" t="s">
         <v>1626</v>
       </c>
-      <c r="J225" s="28">
+      <c r="J225" s="24">
         <v>100000</v>
       </c>
       <c r="K225" s="5" t="s">
@@ -24054,7 +24054,7 @@
       <c r="I226" t="s">
         <v>933</v>
       </c>
-      <c r="J226" s="28">
+      <c r="J226" s="24">
         <v>6000</v>
       </c>
       <c r="K226" s="5" t="s">
@@ -24136,7 +24136,7 @@
       <c r="I227" t="s">
         <v>1626</v>
       </c>
-      <c r="J227" s="28">
+      <c r="J227" s="24">
         <v>20000</v>
       </c>
       <c r="K227" s="5" t="s">
@@ -24220,7 +24220,7 @@
       <c r="I228" t="s">
         <v>1626</v>
       </c>
-      <c r="J228" s="28">
+      <c r="J228" s="24">
         <v>300000</v>
       </c>
       <c r="K228" s="5" t="s">
@@ -24304,7 +24304,7 @@
       <c r="I229" t="s">
         <v>933</v>
       </c>
-      <c r="J229" s="28">
+      <c r="J229" s="24">
         <v>10000</v>
       </c>
       <c r="K229" s="5" t="s">
@@ -24386,7 +24386,7 @@
       <c r="I230" t="s">
         <v>1626</v>
       </c>
-      <c r="J230" s="28">
+      <c r="J230" s="24">
         <v>80000</v>
       </c>
       <c r="K230" s="5" t="s">
@@ -24470,7 +24470,7 @@
       <c r="I231" t="s">
         <v>1626</v>
       </c>
-      <c r="J231" s="28">
+      <c r="J231" s="24">
         <v>300000</v>
       </c>
       <c r="K231" s="5" t="s">
@@ -24554,7 +24554,7 @@
       <c r="I232" t="s">
         <v>933</v>
       </c>
-      <c r="J232" s="28">
+      <c r="J232" s="24">
         <v>9000</v>
       </c>
       <c r="K232" s="5" t="s">
@@ -24636,7 +24636,7 @@
       <c r="I233" t="s">
         <v>1626</v>
       </c>
-      <c r="J233" s="28">
+      <c r="J233" s="24">
         <v>30000</v>
       </c>
       <c r="K233" s="5" t="s">
@@ -24720,7 +24720,7 @@
       <c r="I234" t="s">
         <v>933</v>
       </c>
-      <c r="J234" s="28">
+      <c r="J234" s="24">
         <v>70000</v>
       </c>
       <c r="K234" s="5" t="s">
@@ -24800,7 +24800,7 @@
       <c r="I235" t="s">
         <v>933</v>
       </c>
-      <c r="J235" s="28">
+      <c r="J235" s="24">
         <v>400000</v>
       </c>
       <c r="K235" s="5" t="s">
@@ -24880,7 +24880,7 @@
       <c r="I236" t="s">
         <v>933</v>
       </c>
-      <c r="J236" s="28">
+      <c r="J236" s="24">
         <v>100000</v>
       </c>
       <c r="K236" s="5" t="s">
@@ -24960,8 +24960,8 @@
       <c r="I237" t="s">
         <v>933</v>
       </c>
-      <c r="J237" s="28" t="s">
-        <v>1659</v>
+      <c r="J237" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K237" s="5" t="s">
         <v>933</v>
@@ -25040,8 +25040,8 @@
       <c r="I238" t="s">
         <v>933</v>
       </c>
-      <c r="J238" s="28" t="s">
-        <v>1659</v>
+      <c r="J238" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K238" s="5" t="s">
         <v>933</v>
@@ -25120,8 +25120,8 @@
       <c r="I239" t="s">
         <v>933</v>
       </c>
-      <c r="J239" s="28" t="s">
-        <v>1659</v>
+      <c r="J239" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K239" s="5" t="s">
         <v>933</v>
@@ -25200,8 +25200,8 @@
       <c r="I240" t="s">
         <v>933</v>
       </c>
-      <c r="J240" s="28" t="s">
-        <v>1659</v>
+      <c r="J240" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K240" s="5" t="s">
         <v>933</v>
@@ -25280,8 +25280,8 @@
       <c r="I241" t="s">
         <v>933</v>
       </c>
-      <c r="J241" s="28" t="s">
-        <v>1659</v>
+      <c r="J241" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K241" s="5" t="s">
         <v>933</v>
@@ -25360,7 +25360,7 @@
       <c r="I242" t="s">
         <v>1626</v>
       </c>
-      <c r="J242" s="28">
+      <c r="J242" s="24">
         <v>500000</v>
       </c>
       <c r="K242" s="5" t="s">
@@ -25444,7 +25444,7 @@
       <c r="I243" t="s">
         <v>1626</v>
       </c>
-      <c r="J243" s="28">
+      <c r="J243" s="24">
         <v>50000</v>
       </c>
       <c r="K243" s="5" t="s">
@@ -25528,7 +25528,7 @@
       <c r="I244" t="s">
         <v>1626</v>
       </c>
-      <c r="J244" s="28">
+      <c r="J244" s="24">
         <v>900000</v>
       </c>
       <c r="K244" s="5" t="s">
@@ -25612,7 +25612,7 @@
       <c r="I245" t="s">
         <v>1626</v>
       </c>
-      <c r="J245" s="28">
+      <c r="J245" s="24">
         <v>600000</v>
       </c>
       <c r="K245" s="5" t="s">
@@ -25696,7 +25696,7 @@
       <c r="I246" t="s">
         <v>933</v>
       </c>
-      <c r="J246" s="28">
+      <c r="J246" s="24">
         <v>40000</v>
       </c>
       <c r="K246" s="5" t="s">
@@ -25776,7 +25776,7 @@
       <c r="I247" t="s">
         <v>933</v>
       </c>
-      <c r="J247" s="28">
+      <c r="J247" s="24">
         <v>200000</v>
       </c>
       <c r="K247" s="5" t="s">
@@ -25856,7 +25856,7 @@
       <c r="I248" t="s">
         <v>933</v>
       </c>
-      <c r="J248" s="28">
+      <c r="J248" s="24">
         <v>80000</v>
       </c>
       <c r="K248" s="5" t="s">
@@ -25936,7 +25936,7 @@
       <c r="I249" t="s">
         <v>1626</v>
       </c>
-      <c r="J249" s="28">
+      <c r="J249" s="24">
         <v>100000</v>
       </c>
       <c r="K249" s="5" t="s">
@@ -26020,7 +26020,7 @@
       <c r="I250" t="s">
         <v>1626</v>
       </c>
-      <c r="J250" s="28">
+      <c r="J250" s="24">
         <v>60000</v>
       </c>
       <c r="K250" s="5" t="s">
@@ -26104,7 +26104,7 @@
       <c r="I251" t="s">
         <v>933</v>
       </c>
-      <c r="J251" s="28">
+      <c r="J251" s="24">
         <v>10000</v>
       </c>
       <c r="K251" s="5" t="s">
@@ -26186,7 +26186,7 @@
       <c r="I252" t="s">
         <v>1626</v>
       </c>
-      <c r="J252" s="28">
+      <c r="J252" s="24">
         <v>10000</v>
       </c>
       <c r="K252" s="5" t="s">
@@ -26270,7 +26270,7 @@
       <c r="I253" t="s">
         <v>1626</v>
       </c>
-      <c r="J253" s="28">
+      <c r="J253" s="24">
         <v>80000</v>
       </c>
       <c r="K253" s="5" t="s">
@@ -26354,7 +26354,7 @@
       <c r="I254" t="s">
         <v>933</v>
       </c>
-      <c r="J254" s="28">
+      <c r="J254" s="24">
         <v>7000</v>
       </c>
       <c r="K254" s="5" t="s">
@@ -26436,7 +26436,7 @@
       <c r="I255" t="s">
         <v>1626</v>
       </c>
-      <c r="J255" s="28">
+      <c r="J255" s="24">
         <v>20000</v>
       </c>
       <c r="K255" s="5" t="s">
@@ -26520,7 +26520,7 @@
       <c r="I256" t="s">
         <v>1626</v>
       </c>
-      <c r="J256" s="28">
+      <c r="J256" s="24">
         <v>30000</v>
       </c>
       <c r="K256" s="5" t="s">
@@ -26604,7 +26604,7 @@
       <c r="I257" t="s">
         <v>1626</v>
       </c>
-      <c r="J257" s="28">
+      <c r="J257" s="24">
         <v>200000</v>
       </c>
       <c r="K257" s="5" t="s">
@@ -26688,7 +26688,7 @@
       <c r="I258" t="s">
         <v>1626</v>
       </c>
-      <c r="J258" s="28">
+      <c r="J258" s="24">
         <v>200000</v>
       </c>
       <c r="K258" s="5" t="s">
@@ -26772,7 +26772,7 @@
       <c r="I259" t="s">
         <v>933</v>
       </c>
-      <c r="J259" s="28">
+      <c r="J259" s="24">
         <v>30000</v>
       </c>
       <c r="K259" s="5" t="s">
@@ -26854,7 +26854,7 @@
       <c r="I260" t="s">
         <v>1626</v>
       </c>
-      <c r="J260" s="28">
+      <c r="J260" s="24">
         <v>70000</v>
       </c>
       <c r="K260" s="5" t="s">
@@ -26938,7 +26938,7 @@
       <c r="I261" t="s">
         <v>1626</v>
       </c>
-      <c r="J261" s="28">
+      <c r="J261" s="24">
         <v>200000</v>
       </c>
       <c r="K261" s="5" t="s">
@@ -27022,7 +27022,7 @@
       <c r="I262" t="s">
         <v>1626</v>
       </c>
-      <c r="J262" s="28">
+      <c r="J262" s="24">
         <v>200000</v>
       </c>
       <c r="K262" s="5" t="s">
@@ -27106,7 +27106,7 @@
       <c r="I263" t="s">
         <v>933</v>
       </c>
-      <c r="J263" s="28">
+      <c r="J263" s="24">
         <v>10000</v>
       </c>
       <c r="K263" s="5" t="s">
@@ -27188,7 +27188,7 @@
       <c r="I264" t="s">
         <v>1626</v>
       </c>
-      <c r="J264" s="28">
+      <c r="J264" s="24">
         <v>30000</v>
       </c>
       <c r="K264" s="5" t="s">
@@ -27272,7 +27272,7 @@
       <c r="I265" t="s">
         <v>933</v>
       </c>
-      <c r="J265" s="28">
+      <c r="J265" s="24">
         <v>20000</v>
       </c>
       <c r="K265" s="5" t="s">
@@ -27354,7 +27354,7 @@
       <c r="I266" t="s">
         <v>933</v>
       </c>
-      <c r="J266" s="28">
+      <c r="J266" s="24">
         <v>5000</v>
       </c>
       <c r="K266" s="5" t="s">
@@ -27436,7 +27436,7 @@
       <c r="I267" t="s">
         <v>933</v>
       </c>
-      <c r="J267" s="28">
+      <c r="J267" s="24">
         <v>30000</v>
       </c>
       <c r="K267" s="5" t="s">
@@ -27518,7 +27518,7 @@
       <c r="I268" t="s">
         <v>933</v>
       </c>
-      <c r="J268" s="28">
+      <c r="J268" s="24">
         <v>10000</v>
       </c>
       <c r="K268" s="5" t="s">
@@ -27600,7 +27600,7 @@
       <c r="I269" t="s">
         <v>933</v>
       </c>
-      <c r="J269" s="28">
+      <c r="J269" s="24">
         <v>30000</v>
       </c>
       <c r="K269" s="5" t="s">
@@ -27682,7 +27682,7 @@
       <c r="I270" t="s">
         <v>933</v>
       </c>
-      <c r="J270" s="28">
+      <c r="J270" s="24">
         <v>60000</v>
       </c>
       <c r="K270" s="5" t="s">
@@ -27764,7 +27764,7 @@
       <c r="I271" t="s">
         <v>933</v>
       </c>
-      <c r="J271" s="28">
+      <c r="J271" s="24">
         <v>100000</v>
       </c>
       <c r="K271" s="5" t="s">
@@ -27846,7 +27846,7 @@
       <c r="I272" t="s">
         <v>1626</v>
       </c>
-      <c r="J272" s="28">
+      <c r="J272" s="24">
         <v>3000000</v>
       </c>
       <c r="K272" s="5" t="s">
@@ -27930,7 +27930,7 @@
       <c r="I273" t="s">
         <v>1626</v>
       </c>
-      <c r="J273" s="28">
+      <c r="J273" s="24">
         <v>700000</v>
       </c>
       <c r="K273" s="5" t="s">
@@ -28014,7 +28014,7 @@
       <c r="I274" t="s">
         <v>1626</v>
       </c>
-      <c r="J274" s="28">
+      <c r="J274" s="24">
         <v>2000000</v>
       </c>
       <c r="K274" s="5" t="s">
@@ -28098,7 +28098,7 @@
       <c r="I275" t="s">
         <v>1626</v>
       </c>
-      <c r="J275" s="28">
+      <c r="J275" s="24">
         <v>10000000</v>
       </c>
       <c r="K275" s="5" t="s">
@@ -28182,7 +28182,7 @@
       <c r="I276" t="s">
         <v>933</v>
       </c>
-      <c r="J276" s="28">
+      <c r="J276" s="24">
         <v>9000</v>
       </c>
       <c r="K276" s="5" t="s">
@@ -28262,7 +28262,7 @@
       <c r="I277" t="s">
         <v>933</v>
       </c>
-      <c r="J277" s="28">
+      <c r="J277" s="24">
         <v>30000</v>
       </c>
       <c r="K277" s="5" t="s">
@@ -28342,7 +28342,7 @@
       <c r="I278" t="s">
         <v>1626</v>
       </c>
-      <c r="J278" s="28">
+      <c r="J278" s="24">
         <v>30000</v>
       </c>
       <c r="K278" s="5" t="s">
@@ -28426,7 +28426,7 @@
       <c r="I279" t="s">
         <v>1626</v>
       </c>
-      <c r="J279" s="28">
+      <c r="J279" s="24">
         <v>60000</v>
       </c>
       <c r="K279" s="5" t="s">
@@ -28510,8 +28510,8 @@
       <c r="I280" t="s">
         <v>933</v>
       </c>
-      <c r="J280" s="28" t="s">
-        <v>1659</v>
+      <c r="J280" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K280" s="5" t="s">
         <v>933</v>
@@ -28590,8 +28590,8 @@
       <c r="I281" t="s">
         <v>933</v>
       </c>
-      <c r="J281" s="28" t="s">
-        <v>1659</v>
+      <c r="J281" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K281" s="5" t="s">
         <v>933</v>
@@ -28670,7 +28670,7 @@
       <c r="I282" t="s">
         <v>933</v>
       </c>
-      <c r="J282" s="28">
+      <c r="J282" s="24">
         <v>2000</v>
       </c>
       <c r="K282" s="5" t="s">
@@ -28750,7 +28750,7 @@
       <c r="I283" t="s">
         <v>933</v>
       </c>
-      <c r="J283" s="28">
+      <c r="J283" s="24">
         <v>1000</v>
       </c>
       <c r="K283" s="5" t="s">
@@ -28830,7 +28830,7 @@
       <c r="I284" t="s">
         <v>933</v>
       </c>
-      <c r="J284" s="28">
+      <c r="J284" s="24">
         <v>10000</v>
       </c>
       <c r="K284" s="5" t="s">
@@ -28910,7 +28910,7 @@
       <c r="I285" t="s">
         <v>933</v>
       </c>
-      <c r="J285" s="28">
+      <c r="J285" s="24">
         <v>40000</v>
       </c>
       <c r="K285" s="5" t="s">
@@ -28990,7 +28990,7 @@
       <c r="I286" t="s">
         <v>933</v>
       </c>
-      <c r="J286" s="28">
+      <c r="J286" s="24">
         <v>300</v>
       </c>
       <c r="K286" s="5" t="s">
@@ -29070,8 +29070,8 @@
       <c r="I287" t="s">
         <v>933</v>
       </c>
-      <c r="J287" s="28" t="s">
-        <v>1659</v>
+      <c r="J287" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K287" s="5" t="s">
         <v>933</v>
@@ -29150,8 +29150,8 @@
       <c r="I288" t="s">
         <v>933</v>
       </c>
-      <c r="J288" s="28" t="s">
-        <v>1659</v>
+      <c r="J288" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K288" s="5" t="s">
         <v>933</v>
@@ -29230,7 +29230,7 @@
       <c r="I289" t="s">
         <v>933</v>
       </c>
-      <c r="J289" s="28">
+      <c r="J289" s="24">
         <v>200000</v>
       </c>
       <c r="K289" s="5" t="s">
@@ -29312,7 +29312,7 @@
       <c r="I290" t="s">
         <v>1626</v>
       </c>
-      <c r="J290" s="28">
+      <c r="J290" s="24">
         <v>800000</v>
       </c>
       <c r="K290" s="5" t="s">
@@ -29396,7 +29396,7 @@
       <c r="I291" t="s">
         <v>933</v>
       </c>
-      <c r="J291" s="28">
+      <c r="J291" s="24">
         <v>200</v>
       </c>
       <c r="K291" s="5" t="s">
@@ -29478,8 +29478,8 @@
       <c r="I292" t="s">
         <v>933</v>
       </c>
-      <c r="J292" s="28" t="s">
-        <v>1659</v>
+      <c r="J292" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K292" s="5" t="s">
         <v>933</v>
@@ -29560,7 +29560,7 @@
       <c r="I293" t="s">
         <v>933</v>
       </c>
-      <c r="J293" s="28">
+      <c r="J293" s="24">
         <v>10000</v>
       </c>
       <c r="K293" s="5" t="s">
@@ -29642,7 +29642,7 @@
       <c r="I294" t="s">
         <v>933</v>
       </c>
-      <c r="J294" s="28">
+      <c r="J294" s="24">
         <v>600000</v>
       </c>
       <c r="K294" s="5" t="s">
@@ -29724,7 +29724,7 @@
       <c r="I295" t="s">
         <v>1626</v>
       </c>
-      <c r="J295" s="28">
+      <c r="J295" s="24">
         <v>1000000</v>
       </c>
       <c r="K295" s="5" t="s">
@@ -29808,7 +29808,7 @@
       <c r="I296" t="s">
         <v>1626</v>
       </c>
-      <c r="J296" s="28">
+      <c r="J296" s="24">
         <v>5000</v>
       </c>
       <c r="K296" s="5" t="s">
@@ -29892,7 +29892,7 @@
       <c r="I297" t="s">
         <v>1626</v>
       </c>
-      <c r="J297" s="28">
+      <c r="J297" s="24">
         <v>9000</v>
       </c>
       <c r="K297" s="5" t="s">
@@ -29976,7 +29976,7 @@
       <c r="I298" t="s">
         <v>933</v>
       </c>
-      <c r="J298" s="28">
+      <c r="J298" s="24">
         <v>1000</v>
       </c>
       <c r="K298" s="5" t="s">
@@ -30058,8 +30058,8 @@
       <c r="I299" t="s">
         <v>933</v>
       </c>
-      <c r="J299" s="28" t="s">
-        <v>1659</v>
+      <c r="J299" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K299" s="5" t="s">
         <v>933</v>
@@ -30140,7 +30140,7 @@
       <c r="I300" t="s">
         <v>933</v>
       </c>
-      <c r="J300" s="28">
+      <c r="J300" s="24">
         <v>8000</v>
       </c>
       <c r="K300" s="5" t="s">
@@ -30222,7 +30222,7 @@
       <c r="I301" t="s">
         <v>1626</v>
       </c>
-      <c r="J301" s="28">
+      <c r="J301" s="24">
         <v>400000</v>
       </c>
       <c r="K301" s="5" t="s">
@@ -30306,7 +30306,7 @@
       <c r="I302" t="s">
         <v>1626</v>
       </c>
-      <c r="J302" s="28">
+      <c r="J302" s="24">
         <v>3000</v>
       </c>
       <c r="K302" s="5" t="s">
@@ -30390,7 +30390,7 @@
       <c r="I303" t="s">
         <v>1626</v>
       </c>
-      <c r="J303" s="28">
+      <c r="J303" s="24">
         <v>3000</v>
       </c>
       <c r="K303" s="5" t="s">
@@ -30474,7 +30474,7 @@
       <c r="I304" t="s">
         <v>933</v>
       </c>
-      <c r="J304" s="28">
+      <c r="J304" s="24">
         <v>10000</v>
       </c>
       <c r="K304" s="5" t="s">
@@ -30554,7 +30554,7 @@
       <c r="I305" t="s">
         <v>933</v>
       </c>
-      <c r="J305" s="28">
+      <c r="J305" s="24">
         <v>60000</v>
       </c>
       <c r="K305" s="5" t="s">
@@ -30634,7 +30634,7 @@
       <c r="I306" t="s">
         <v>933</v>
       </c>
-      <c r="J306" s="28">
+      <c r="J306" s="24">
         <v>700000</v>
       </c>
       <c r="K306" s="5" t="s">
@@ -30716,7 +30716,7 @@
       <c r="I307" t="s">
         <v>933</v>
       </c>
-      <c r="J307" s="28">
+      <c r="J307" s="24">
         <v>10000</v>
       </c>
       <c r="K307" s="5" t="s">
@@ -30796,7 +30796,7 @@
       <c r="I308" t="s">
         <v>933</v>
       </c>
-      <c r="J308" s="28">
+      <c r="J308" s="24">
         <v>200000</v>
       </c>
       <c r="K308" s="5" t="s">
@@ -30878,7 +30878,7 @@
       <c r="I309" t="s">
         <v>933</v>
       </c>
-      <c r="J309" s="28">
+      <c r="J309" s="24">
         <v>500000</v>
       </c>
       <c r="K309" s="5" t="s">
@@ -30960,7 +30960,7 @@
       <c r="I310" t="s">
         <v>933</v>
       </c>
-      <c r="J310" s="28">
+      <c r="J310" s="24">
         <v>500000</v>
       </c>
       <c r="K310" s="5" t="s">
@@ -31042,7 +31042,7 @@
       <c r="I311" t="s">
         <v>933</v>
       </c>
-      <c r="J311" s="28">
+      <c r="J311" s="24">
         <v>100000</v>
       </c>
       <c r="K311" s="5" t="s">
@@ -31124,7 +31124,7 @@
       <c r="I312" t="s">
         <v>933</v>
       </c>
-      <c r="J312" s="28">
+      <c r="J312" s="24">
         <v>2000000</v>
       </c>
       <c r="K312" s="5" t="s">
@@ -31206,7 +31206,7 @@
       <c r="I313" t="s">
         <v>933</v>
       </c>
-      <c r="J313" s="28">
+      <c r="J313" s="24">
         <v>100000</v>
       </c>
       <c r="K313" s="5" t="s">
@@ -31286,8 +31286,8 @@
       <c r="I314" t="s">
         <v>933</v>
       </c>
-      <c r="J314" s="28" t="s">
-        <v>1659</v>
+      <c r="J314" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K314" s="5" t="s">
         <v>933</v>
@@ -31366,8 +31366,8 @@
       <c r="I315" t="s">
         <v>933</v>
       </c>
-      <c r="J315" s="28" t="s">
-        <v>1659</v>
+      <c r="J315" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K315" s="5" t="s">
         <v>933</v>
@@ -31446,7 +31446,7 @@
       <c r="I316" t="s">
         <v>933</v>
       </c>
-      <c r="J316" s="28">
+      <c r="J316" s="24">
         <v>40000</v>
       </c>
       <c r="K316" s="5" t="s">
@@ -31528,7 +31528,7 @@
       <c r="I317" t="s">
         <v>933</v>
       </c>
-      <c r="J317" s="28">
+      <c r="J317" s="24">
         <v>200000</v>
       </c>
       <c r="K317" s="5" t="s">
@@ -31610,7 +31610,7 @@
       <c r="I318" t="s">
         <v>933</v>
       </c>
-      <c r="J318" s="28">
+      <c r="J318" s="24">
         <v>70000</v>
       </c>
       <c r="K318" s="5" t="s">
@@ -31692,7 +31692,7 @@
       <c r="I319" t="s">
         <v>933</v>
       </c>
-      <c r="J319" s="28">
+      <c r="J319" s="24">
         <v>200000</v>
       </c>
       <c r="K319" s="5" t="s">
@@ -31774,7 +31774,7 @@
       <c r="I320" t="s">
         <v>933</v>
       </c>
-      <c r="J320" s="28">
+      <c r="J320" s="24">
         <v>30000</v>
       </c>
       <c r="K320" s="5" t="s">
@@ -31856,7 +31856,7 @@
       <c r="I321" t="s">
         <v>933</v>
       </c>
-      <c r="J321" s="28">
+      <c r="J321" s="24">
         <v>80000</v>
       </c>
       <c r="K321" s="5" t="s">
@@ -31938,7 +31938,7 @@
       <c r="I322" t="s">
         <v>1626</v>
       </c>
-      <c r="J322" s="28">
+      <c r="J322" s="24">
         <v>200000</v>
       </c>
       <c r="K322" s="5" t="s">
@@ -32022,7 +32022,7 @@
       <c r="I323" t="s">
         <v>1626</v>
       </c>
-      <c r="J323" s="28">
+      <c r="J323" s="24">
         <v>2000000</v>
       </c>
       <c r="K323" s="5" t="s">
@@ -32106,7 +32106,7 @@
       <c r="I324" t="s">
         <v>1626</v>
       </c>
-      <c r="J324" s="28">
+      <c r="J324" s="24">
         <v>5000</v>
       </c>
       <c r="K324" s="5" t="s">
@@ -32190,7 +32190,7 @@
       <c r="I325" t="s">
         <v>1626</v>
       </c>
-      <c r="J325" s="28">
+      <c r="J325" s="24">
         <v>50000</v>
       </c>
       <c r="K325" s="5" t="s">
@@ -32274,7 +32274,7 @@
       <c r="I326" t="s">
         <v>1626</v>
       </c>
-      <c r="J326" s="28">
+      <c r="J326" s="24">
         <v>100000</v>
       </c>
       <c r="K326" s="5" t="s">
@@ -32358,7 +32358,7 @@
       <c r="I327" t="s">
         <v>1626</v>
       </c>
-      <c r="J327" s="28">
+      <c r="J327" s="24">
         <v>20000</v>
       </c>
       <c r="K327" s="5" t="s">
@@ -32442,7 +32442,7 @@
       <c r="I328" t="s">
         <v>933</v>
       </c>
-      <c r="J328" s="28">
+      <c r="J328" s="24">
         <v>60000</v>
       </c>
       <c r="K328" s="5" t="s">
@@ -32524,7 +32524,7 @@
       <c r="I329" t="s">
         <v>933</v>
       </c>
-      <c r="J329" s="28">
+      <c r="J329" s="24">
         <v>30000</v>
       </c>
       <c r="K329" s="5" t="s">
@@ -32606,7 +32606,7 @@
       <c r="I330" t="s">
         <v>933</v>
       </c>
-      <c r="J330" s="28">
+      <c r="J330" s="24">
         <v>200000</v>
       </c>
       <c r="K330" s="5" t="s">
@@ -32688,7 +32688,7 @@
       <c r="I331" t="s">
         <v>933</v>
       </c>
-      <c r="J331" s="28">
+      <c r="J331" s="24">
         <v>700</v>
       </c>
       <c r="K331" s="5" t="s">
@@ -32770,7 +32770,7 @@
       <c r="I332" t="s">
         <v>1626</v>
       </c>
-      <c r="J332" s="28">
+      <c r="J332" s="24">
         <v>40000</v>
       </c>
       <c r="K332" s="5" t="s">
@@ -32854,7 +32854,7 @@
       <c r="I333" t="s">
         <v>1626</v>
       </c>
-      <c r="J333" s="28">
+      <c r="J333" s="24">
         <v>3000000</v>
       </c>
       <c r="K333" s="5" t="s">
@@ -32938,7 +32938,7 @@
       <c r="I334" t="s">
         <v>1626</v>
       </c>
-      <c r="J334" s="28">
+      <c r="J334" s="24">
         <v>30000</v>
       </c>
       <c r="K334" s="5" t="s">
@@ -33022,7 +33022,7 @@
       <c r="I335" t="s">
         <v>1626</v>
       </c>
-      <c r="J335" s="28">
+      <c r="J335" s="24">
         <v>500000</v>
       </c>
       <c r="K335" s="5" t="s">
@@ -33106,7 +33106,7 @@
       <c r="I336" t="s">
         <v>1626</v>
       </c>
-      <c r="J336" s="28">
+      <c r="J336" s="24">
         <v>70000</v>
       </c>
       <c r="K336" s="5" t="s">
@@ -33190,7 +33190,7 @@
       <c r="I337" t="s">
         <v>1626</v>
       </c>
-      <c r="J337" s="28">
+      <c r="J337" s="24">
         <v>2000000</v>
       </c>
       <c r="K337" s="5" t="s">
@@ -33274,7 +33274,7 @@
       <c r="I338" t="s">
         <v>1626</v>
       </c>
-      <c r="J338" s="28">
+      <c r="J338" s="24">
         <v>90000</v>
       </c>
       <c r="K338" s="5" t="s">
@@ -33358,7 +33358,7 @@
       <c r="I339" t="s">
         <v>1626</v>
       </c>
-      <c r="J339" s="28">
+      <c r="J339" s="24">
         <v>80000</v>
       </c>
       <c r="K339" s="5" t="s">
@@ -33442,7 +33442,7 @@
       <c r="I340" t="s">
         <v>933</v>
       </c>
-      <c r="J340" s="28">
+      <c r="J340" s="24">
         <v>50000</v>
       </c>
       <c r="K340" s="5" t="s">
@@ -33524,7 +33524,7 @@
       <c r="I341" t="s">
         <v>933</v>
       </c>
-      <c r="J341" s="28">
+      <c r="J341" s="24">
         <v>100000</v>
       </c>
       <c r="K341" s="5" t="s">
@@ -33606,7 +33606,7 @@
       <c r="I342" t="s">
         <v>933</v>
       </c>
-      <c r="J342" s="28">
+      <c r="J342" s="24">
         <v>2000</v>
       </c>
       <c r="K342" s="5" t="s">
@@ -33688,7 +33688,7 @@
       <c r="I343" t="s">
         <v>1626</v>
       </c>
-      <c r="J343" s="28">
+      <c r="J343" s="24">
         <v>600000</v>
       </c>
       <c r="K343" s="5" t="s">
@@ -33772,7 +33772,7 @@
       <c r="I344" t="s">
         <v>1626</v>
       </c>
-      <c r="J344" s="28">
+      <c r="J344" s="24">
         <v>8000000</v>
       </c>
       <c r="K344" s="5" t="s">
@@ -33856,7 +33856,7 @@
       <c r="I345" t="s">
         <v>1626</v>
       </c>
-      <c r="J345" s="28">
+      <c r="J345" s="24">
         <v>50000</v>
       </c>
       <c r="K345" s="5" t="s">
@@ -33940,7 +33940,7 @@
       <c r="I346" t="s">
         <v>1626</v>
       </c>
-      <c r="J346" s="28">
+      <c r="J346" s="24">
         <v>200000</v>
       </c>
       <c r="K346" s="5" t="s">
@@ -34024,7 +34024,7 @@
       <c r="I347" t="s">
         <v>1626</v>
       </c>
-      <c r="J347" s="28">
+      <c r="J347" s="24">
         <v>1000000</v>
       </c>
       <c r="K347" s="5" t="s">
@@ -34108,7 +34108,7 @@
       <c r="I348" t="s">
         <v>933</v>
       </c>
-      <c r="J348" s="28">
+      <c r="J348" s="24">
         <v>30000</v>
       </c>
       <c r="K348" s="5" t="s">
@@ -34190,7 +34190,7 @@
       <c r="I349" t="s">
         <v>933</v>
       </c>
-      <c r="J349" s="28">
+      <c r="J349" s="24">
         <v>10000</v>
       </c>
       <c r="K349" s="5" t="s">
@@ -34272,7 +34272,7 @@
       <c r="I350" t="s">
         <v>933</v>
       </c>
-      <c r="J350" s="28">
+      <c r="J350" s="24">
         <v>40000</v>
       </c>
       <c r="K350" s="5" t="s">
@@ -34354,7 +34354,7 @@
       <c r="I351" t="s">
         <v>933</v>
       </c>
-      <c r="J351" s="28">
+      <c r="J351" s="24">
         <v>400</v>
       </c>
       <c r="K351" s="5" t="s">
@@ -34436,7 +34436,7 @@
       <c r="I352" t="s">
         <v>933</v>
       </c>
-      <c r="J352" s="28">
+      <c r="J352" s="24">
         <v>10000</v>
       </c>
       <c r="K352" s="5" t="s">
@@ -34516,7 +34516,7 @@
       <c r="I353" t="s">
         <v>933</v>
       </c>
-      <c r="J353" s="28">
+      <c r="J353" s="24">
         <v>3000</v>
       </c>
       <c r="K353" s="5" t="s">
@@ -34596,7 +34596,7 @@
       <c r="I354" t="s">
         <v>933</v>
       </c>
-      <c r="J354" s="28">
+      <c r="J354" s="24">
         <v>4000</v>
       </c>
       <c r="K354" s="5" t="s">
@@ -34676,7 +34676,7 @@
       <c r="I355" t="s">
         <v>933</v>
       </c>
-      <c r="J355" s="28">
+      <c r="J355" s="24">
         <v>40000</v>
       </c>
       <c r="K355" s="5" t="s">
@@ -34756,7 +34756,7 @@
       <c r="I356" t="s">
         <v>933</v>
       </c>
-      <c r="J356" s="28">
+      <c r="J356" s="24">
         <v>6000</v>
       </c>
       <c r="K356" s="5" t="s">
@@ -34838,7 +34838,7 @@
       <c r="I357" t="s">
         <v>933</v>
       </c>
-      <c r="J357" s="28">
+      <c r="J357" s="24">
         <v>7000</v>
       </c>
       <c r="K357" s="5" t="s">
@@ -34920,7 +34920,7 @@
       <c r="I358" t="s">
         <v>933</v>
       </c>
-      <c r="J358" s="28">
+      <c r="J358" s="24">
         <v>1000000</v>
       </c>
       <c r="K358" s="5" t="s">
@@ -35002,7 +35002,7 @@
       <c r="I359" t="s">
         <v>1626</v>
       </c>
-      <c r="J359" s="28">
+      <c r="J359" s="24">
         <v>70000</v>
       </c>
       <c r="K359" s="5" t="s">
@@ -35086,7 +35086,7 @@
       <c r="I360" t="s">
         <v>933</v>
       </c>
-      <c r="J360" s="28">
+      <c r="J360" s="24">
         <v>40000</v>
       </c>
       <c r="K360" s="5" t="s">
@@ -35168,7 +35168,7 @@
       <c r="I361" t="s">
         <v>1626</v>
       </c>
-      <c r="J361" s="28">
+      <c r="J361" s="24">
         <v>200000</v>
       </c>
       <c r="K361" s="5" t="s">
@@ -35252,7 +35252,7 @@
       <c r="I362" t="s">
         <v>933</v>
       </c>
-      <c r="J362" s="28">
+      <c r="J362" s="24">
         <v>200000</v>
       </c>
       <c r="K362" s="5" t="s">
@@ -35334,7 +35334,7 @@
       <c r="I363" t="s">
         <v>1626</v>
       </c>
-      <c r="J363" s="28">
+      <c r="J363" s="24">
         <v>40000</v>
       </c>
       <c r="K363" s="5" t="s">
@@ -35418,7 +35418,7 @@
       <c r="I364" t="s">
         <v>1626</v>
       </c>
-      <c r="J364" s="28">
+      <c r="J364" s="24">
         <v>300000</v>
       </c>
       <c r="K364" s="5" t="s">
@@ -35502,7 +35502,7 @@
       <c r="I365" t="s">
         <v>933</v>
       </c>
-      <c r="J365" s="28">
+      <c r="J365" s="24">
         <v>400000</v>
       </c>
       <c r="K365" s="5" t="s">
@@ -35584,7 +35584,7 @@
       <c r="I366" t="s">
         <v>933</v>
       </c>
-      <c r="J366" s="28">
+      <c r="J366" s="24">
         <v>2000</v>
       </c>
       <c r="K366" s="5" t="s">
@@ -35664,7 +35664,7 @@
       <c r="I367" t="s">
         <v>933</v>
       </c>
-      <c r="J367" s="28">
+      <c r="J367" s="24">
         <v>2000</v>
       </c>
       <c r="K367" s="5" t="s">
@@ -35744,7 +35744,7 @@
       <c r="I368" t="s">
         <v>933</v>
       </c>
-      <c r="J368" s="28">
+      <c r="J368" s="24">
         <v>3000</v>
       </c>
       <c r="K368" s="5" t="s">
@@ -35824,7 +35824,7 @@
       <c r="I369" t="s">
         <v>933</v>
       </c>
-      <c r="J369" s="28">
+      <c r="J369" s="24">
         <v>2000</v>
       </c>
       <c r="K369" s="5" t="s">
@@ -35904,7 +35904,7 @@
       <c r="I370" t="s">
         <v>1626</v>
       </c>
-      <c r="J370" s="28">
+      <c r="J370" s="24">
         <v>3000</v>
       </c>
       <c r="K370" s="5" t="s">
@@ -35988,7 +35988,7 @@
       <c r="I371" t="s">
         <v>1626</v>
       </c>
-      <c r="J371" s="28">
+      <c r="J371" s="24">
         <v>3000</v>
       </c>
       <c r="K371" s="5" t="s">
@@ -36072,8 +36072,8 @@
       <c r="I372" t="s">
         <v>933</v>
       </c>
-      <c r="J372" s="28" t="s">
-        <v>1659</v>
+      <c r="J372" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K372" s="5" t="s">
         <v>933</v>
@@ -36152,7 +36152,7 @@
       <c r="I373" t="s">
         <v>933</v>
       </c>
-      <c r="J373" s="28">
+      <c r="J373" s="24">
         <v>300</v>
       </c>
       <c r="K373" s="5" t="s">
@@ -36232,7 +36232,7 @@
       <c r="I374" t="s">
         <v>933</v>
       </c>
-      <c r="J374" s="28">
+      <c r="J374" s="24">
         <v>300</v>
       </c>
       <c r="K374" s="5" t="s">
@@ -36312,7 +36312,7 @@
       <c r="I375" t="s">
         <v>1626</v>
       </c>
-      <c r="J375" s="28">
+      <c r="J375" s="24">
         <v>10000</v>
       </c>
       <c r="K375" s="5" t="s">
@@ -36396,7 +36396,7 @@
       <c r="I376" t="s">
         <v>1626</v>
       </c>
-      <c r="J376" s="28">
+      <c r="J376" s="24">
         <v>40000</v>
       </c>
       <c r="K376" s="5" t="s">
@@ -36480,7 +36480,7 @@
       <c r="I377" t="s">
         <v>1626</v>
       </c>
-      <c r="J377" s="28">
+      <c r="J377" s="24">
         <v>90000</v>
       </c>
       <c r="K377" s="5" t="s">
@@ -36564,7 +36564,7 @@
       <c r="I378" t="s">
         <v>933</v>
       </c>
-      <c r="J378" s="28">
+      <c r="J378" s="24">
         <v>1000</v>
       </c>
       <c r="K378" s="5" t="s">
@@ -36644,7 +36644,7 @@
       <c r="I379" t="s">
         <v>933</v>
       </c>
-      <c r="J379" s="28">
+      <c r="J379" s="24">
         <v>7000</v>
       </c>
       <c r="K379" s="5" t="s">
@@ -36724,7 +36724,7 @@
       <c r="I380" t="s">
         <v>1626</v>
       </c>
-      <c r="J380" s="28">
+      <c r="J380" s="24">
         <v>10000</v>
       </c>
       <c r="K380" s="5" t="s">
@@ -36808,7 +36808,7 @@
       <c r="I381" t="s">
         <v>1626</v>
       </c>
-      <c r="J381" s="28">
+      <c r="J381" s="24">
         <v>20000</v>
       </c>
       <c r="K381" s="5" t="s">
@@ -36892,7 +36892,7 @@
       <c r="I382" t="s">
         <v>933</v>
       </c>
-      <c r="J382" s="28">
+      <c r="J382" s="24">
         <v>30000</v>
       </c>
       <c r="K382" s="5" t="s">
@@ -36974,7 +36974,7 @@
       <c r="I383" t="s">
         <v>933</v>
       </c>
-      <c r="J383" s="28">
+      <c r="J383" s="24">
         <v>20000</v>
       </c>
       <c r="K383" s="5" t="s">
@@ -37056,7 +37056,7 @@
       <c r="I384" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="J384" s="29">
+      <c r="J384" s="25">
         <v>100000</v>
       </c>
       <c r="K384" s="8" t="s">
@@ -37138,7 +37138,7 @@
       <c r="I385" t="s">
         <v>1626</v>
       </c>
-      <c r="J385" s="28">
+      <c r="J385" s="24">
         <v>2000000</v>
       </c>
       <c r="K385" s="5" t="s">
@@ -37222,7 +37222,7 @@
       <c r="I386" t="s">
         <v>933</v>
       </c>
-      <c r="J386" s="28">
+      <c r="J386" s="24">
         <v>40000</v>
       </c>
       <c r="K386" s="5" t="s">
@@ -37304,7 +37304,7 @@
       <c r="I387" t="s">
         <v>1626</v>
       </c>
-      <c r="J387" s="28">
+      <c r="J387" s="24">
         <v>4000000</v>
       </c>
       <c r="K387" s="5" t="s">
@@ -37388,7 +37388,7 @@
       <c r="I388" t="s">
         <v>933</v>
       </c>
-      <c r="J388" s="28">
+      <c r="J388" s="24">
         <v>300</v>
       </c>
       <c r="K388" s="5" t="s">
@@ -37470,7 +37470,7 @@
       <c r="I389" t="s">
         <v>1626</v>
       </c>
-      <c r="J389" s="28">
+      <c r="J389" s="24">
         <v>900000</v>
       </c>
       <c r="K389" s="5" t="s">
@@ -37554,7 +37554,7 @@
       <c r="I390" t="s">
         <v>933</v>
       </c>
-      <c r="J390" s="28">
+      <c r="J390" s="24">
         <v>5000</v>
       </c>
       <c r="K390" s="5" t="s">
@@ -37636,7 +37636,7 @@
       <c r="I391" t="s">
         <v>933</v>
       </c>
-      <c r="J391" s="28">
+      <c r="J391" s="24">
         <v>400000</v>
       </c>
       <c r="K391" s="5" t="s">
@@ -37718,7 +37718,7 @@
       <c r="I392" t="s">
         <v>933</v>
       </c>
-      <c r="J392" s="28">
+      <c r="J392" s="24">
         <v>400000</v>
       </c>
       <c r="K392" s="5" t="s">
@@ -37800,7 +37800,7 @@
       <c r="I393" t="s">
         <v>1626</v>
       </c>
-      <c r="J393" s="28">
+      <c r="J393" s="24">
         <v>3000000</v>
       </c>
       <c r="K393" s="5" t="s">
@@ -37884,7 +37884,7 @@
       <c r="I394" t="s">
         <v>1626</v>
       </c>
-      <c r="J394" s="28">
+      <c r="J394" s="24">
         <v>1000000</v>
       </c>
       <c r="K394" s="5" t="s">
@@ -37968,7 +37968,7 @@
       <c r="I395" t="s">
         <v>1626</v>
       </c>
-      <c r="J395" s="28">
+      <c r="J395" s="24">
         <v>4000000</v>
       </c>
       <c r="K395" s="5" t="s">
@@ -38052,7 +38052,7 @@
       <c r="I396" t="s">
         <v>1626</v>
       </c>
-      <c r="J396" s="28">
+      <c r="J396" s="24">
         <v>2000000</v>
       </c>
       <c r="K396" s="5" t="s">
@@ -38136,7 +38136,7 @@
       <c r="I397" t="s">
         <v>1626</v>
       </c>
-      <c r="J397" s="28">
+      <c r="J397" s="24">
         <v>3000000</v>
       </c>
       <c r="K397" s="5" t="s">
@@ -38220,7 +38220,7 @@
       <c r="I398" t="s">
         <v>1626</v>
       </c>
-      <c r="J398" s="28">
+      <c r="J398" s="24">
         <v>900000</v>
       </c>
       <c r="K398" s="5" t="s">
@@ -38304,7 +38304,7 @@
       <c r="I399" t="s">
         <v>1626</v>
       </c>
-      <c r="J399" s="28">
+      <c r="J399" s="24">
         <v>80000</v>
       </c>
       <c r="K399" s="5" t="s">
@@ -38388,7 +38388,7 @@
       <c r="I400" t="s">
         <v>1626</v>
       </c>
-      <c r="J400" s="28">
+      <c r="J400" s="24">
         <v>80000</v>
       </c>
       <c r="K400" s="5" t="s">
@@ -38472,7 +38472,7 @@
       <c r="I401" t="s">
         <v>1626</v>
       </c>
-      <c r="J401" s="28">
+      <c r="J401" s="24">
         <v>900000</v>
       </c>
       <c r="K401" s="5" t="s">
@@ -38556,7 +38556,7 @@
       <c r="I402" t="s">
         <v>1626</v>
       </c>
-      <c r="J402" s="28">
+      <c r="J402" s="24">
         <v>300000</v>
       </c>
       <c r="K402" s="5" t="s">
@@ -38640,7 +38640,7 @@
       <c r="I403" t="s">
         <v>933</v>
       </c>
-      <c r="J403" s="28">
+      <c r="J403" s="24">
         <v>900</v>
       </c>
       <c r="K403" s="5" t="s">
@@ -38722,8 +38722,8 @@
       <c r="I404" t="s">
         <v>933</v>
       </c>
-      <c r="J404" s="28" t="s">
-        <v>1659</v>
+      <c r="J404" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K404" s="5" t="s">
         <v>933</v>
@@ -38804,7 +38804,7 @@
       <c r="I405" t="s">
         <v>933</v>
       </c>
-      <c r="J405" s="28">
+      <c r="J405" s="24">
         <v>1000</v>
       </c>
       <c r="K405" s="5" t="s">
@@ -38886,7 +38886,7 @@
       <c r="I406" t="s">
         <v>933</v>
       </c>
-      <c r="J406" s="28">
+      <c r="J406" s="24">
         <v>2000</v>
       </c>
       <c r="K406" s="5" t="s">
@@ -38968,7 +38968,7 @@
       <c r="I407" t="s">
         <v>933</v>
       </c>
-      <c r="J407" s="28">
+      <c r="J407" s="24">
         <v>200000</v>
       </c>
       <c r="K407" s="5" t="s">
@@ -39050,7 +39050,7 @@
       <c r="I408" t="s">
         <v>1626</v>
       </c>
-      <c r="J408" s="28">
+      <c r="J408" s="24">
         <v>700000</v>
       </c>
       <c r="K408" s="5" t="s">
@@ -39134,7 +39134,7 @@
       <c r="I409" t="s">
         <v>933</v>
       </c>
-      <c r="J409" s="28">
+      <c r="J409" s="24">
         <v>800000</v>
       </c>
       <c r="K409" s="5" t="s">
@@ -39216,7 +39216,7 @@
       <c r="I410" t="s">
         <v>1626</v>
       </c>
-      <c r="J410" s="28">
+      <c r="J410" s="24">
         <v>5000000</v>
       </c>
       <c r="K410" s="5" t="s">
@@ -39300,7 +39300,7 @@
       <c r="I411" t="s">
         <v>933</v>
       </c>
-      <c r="J411" s="28">
+      <c r="J411" s="24">
         <v>8000</v>
       </c>
       <c r="K411" s="5" t="s">
@@ -39382,7 +39382,7 @@
       <c r="I412" t="s">
         <v>933</v>
       </c>
-      <c r="J412" s="28">
+      <c r="J412" s="24">
         <v>9000</v>
       </c>
       <c r="K412" s="5" t="s">
@@ -39464,7 +39464,7 @@
       <c r="I413" t="s">
         <v>933</v>
       </c>
-      <c r="J413" s="28">
+      <c r="J413" s="24">
         <v>40000</v>
       </c>
       <c r="K413" s="5" t="s">
@@ -39546,7 +39546,7 @@
       <c r="I414" t="s">
         <v>933</v>
       </c>
-      <c r="J414" s="28">
+      <c r="J414" s="24">
         <v>1000</v>
       </c>
       <c r="K414" s="5" t="s">
@@ -39628,7 +39628,7 @@
       <c r="I415" t="s">
         <v>933</v>
       </c>
-      <c r="J415" s="28">
+      <c r="J415" s="24">
         <v>2000</v>
       </c>
       <c r="K415" s="5" t="s">
@@ -39710,7 +39710,7 @@
       <c r="I416" t="s">
         <v>1626</v>
       </c>
-      <c r="J416" s="28">
+      <c r="J416" s="24">
         <v>200000</v>
       </c>
       <c r="K416" s="5" t="s">
@@ -39794,7 +39794,7 @@
       <c r="I417" t="s">
         <v>1626</v>
       </c>
-      <c r="J417" s="28">
+      <c r="J417" s="24">
         <v>400000</v>
       </c>
       <c r="K417" s="5" t="s">
@@ -39878,7 +39878,7 @@
       <c r="I418" t="s">
         <v>1626</v>
       </c>
-      <c r="J418" s="28">
+      <c r="J418" s="24">
         <v>400000</v>
       </c>
       <c r="K418" s="5" t="s">
@@ -39962,7 +39962,7 @@
       <c r="I419" t="s">
         <v>1626</v>
       </c>
-      <c r="J419" s="28">
+      <c r="J419" s="24">
         <v>2000000</v>
       </c>
       <c r="K419" s="5" t="s">
@@ -40046,7 +40046,7 @@
       <c r="I420" t="s">
         <v>1626</v>
       </c>
-      <c r="J420" s="28">
+      <c r="J420" s="24">
         <v>900000</v>
       </c>
       <c r="K420" s="5" t="s">
@@ -40130,7 +40130,7 @@
       <c r="I421" t="s">
         <v>1626</v>
       </c>
-      <c r="J421" s="28">
+      <c r="J421" s="24">
         <v>500000</v>
       </c>
       <c r="K421" s="5" t="s">
@@ -40214,7 +40214,7 @@
       <c r="I422" t="s">
         <v>1626</v>
       </c>
-      <c r="J422" s="28">
+      <c r="J422" s="24">
         <v>100000</v>
       </c>
       <c r="K422" s="5" t="s">
@@ -40298,7 +40298,7 @@
       <c r="I423" t="s">
         <v>1626</v>
       </c>
-      <c r="J423" s="28">
+      <c r="J423" s="24">
         <v>30000</v>
       </c>
       <c r="K423" s="5" t="s">
@@ -40382,7 +40382,7 @@
       <c r="I424" t="s">
         <v>1626</v>
       </c>
-      <c r="J424" s="28">
+      <c r="J424" s="24">
         <v>1000000</v>
       </c>
       <c r="K424" s="5" t="s">
@@ -40466,7 +40466,7 @@
       <c r="I425" t="s">
         <v>1626</v>
       </c>
-      <c r="J425" s="28">
+      <c r="J425" s="24">
         <v>40000</v>
       </c>
       <c r="K425" s="5" t="s">
@@ -40550,7 +40550,7 @@
       <c r="I426" t="s">
         <v>933</v>
       </c>
-      <c r="J426" s="28">
+      <c r="J426" s="24">
         <v>1000</v>
       </c>
       <c r="K426" s="5" t="s">
@@ -40632,7 +40632,7 @@
       <c r="I427" t="s">
         <v>1626</v>
       </c>
-      <c r="J427" s="28">
+      <c r="J427" s="24">
         <v>3000000</v>
       </c>
       <c r="K427" s="5" t="s">
@@ -40716,7 +40716,7 @@
       <c r="I428" t="s">
         <v>1626</v>
       </c>
-      <c r="J428" s="28">
+      <c r="J428" s="24">
         <v>100000</v>
       </c>
       <c r="K428" s="5" t="s">
@@ -40800,7 +40800,7 @@
       <c r="I429" t="s">
         <v>1626</v>
       </c>
-      <c r="J429" s="28">
+      <c r="J429" s="24">
         <v>3000000</v>
       </c>
       <c r="K429" s="5" t="s">
@@ -40884,7 +40884,7 @@
       <c r="I430" t="s">
         <v>1626</v>
       </c>
-      <c r="J430" s="28">
+      <c r="J430" s="24">
         <v>100000</v>
       </c>
       <c r="K430" s="5" t="s">
@@ -40968,7 +40968,7 @@
       <c r="I431" t="s">
         <v>933</v>
       </c>
-      <c r="J431" s="28">
+      <c r="J431" s="24">
         <v>2000</v>
       </c>
       <c r="K431" s="5" t="s">
@@ -41050,8 +41050,8 @@
       <c r="I432" t="s">
         <v>933</v>
       </c>
-      <c r="J432" s="28" t="s">
-        <v>1659</v>
+      <c r="J432" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K432" s="5" t="s">
         <v>933</v>
@@ -41132,8 +41132,8 @@
       <c r="I433" t="s">
         <v>933</v>
       </c>
-      <c r="J433" s="28" t="s">
-        <v>1659</v>
+      <c r="J433" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K433" s="5" t="s">
         <v>933</v>
@@ -41214,7 +41214,7 @@
       <c r="I434" t="s">
         <v>1626</v>
       </c>
-      <c r="J434" s="28">
+      <c r="J434" s="24">
         <v>600000</v>
       </c>
       <c r="K434" s="5" t="s">
@@ -41298,7 +41298,7 @@
       <c r="I435" t="s">
         <v>1626</v>
       </c>
-      <c r="J435" s="28">
+      <c r="J435" s="24">
         <v>900000</v>
       </c>
       <c r="K435" s="5" t="s">
@@ -41382,7 +41382,7 @@
       <c r="I436" t="s">
         <v>933</v>
       </c>
-      <c r="J436" s="28">
+      <c r="J436" s="24">
         <v>20000</v>
       </c>
       <c r="K436" s="5" t="s">
@@ -41464,7 +41464,7 @@
       <c r="I437" t="s">
         <v>933</v>
       </c>
-      <c r="J437" s="28">
+      <c r="J437" s="24">
         <v>20000</v>
       </c>
       <c r="K437" s="5" t="s">
@@ -41546,7 +41546,7 @@
       <c r="I438" t="s">
         <v>933</v>
       </c>
-      <c r="J438" s="28">
+      <c r="J438" s="24">
         <v>20000</v>
       </c>
       <c r="K438" s="5" t="s">
@@ -41628,7 +41628,7 @@
       <c r="I439" t="s">
         <v>1626</v>
       </c>
-      <c r="J439" s="28">
+      <c r="J439" s="24">
         <v>1000000</v>
       </c>
       <c r="K439" s="5" t="s">
@@ -41712,7 +41712,7 @@
       <c r="I440" t="s">
         <v>933</v>
       </c>
-      <c r="J440" s="28">
+      <c r="J440" s="24">
         <v>6000</v>
       </c>
       <c r="K440" s="5" t="s">
@@ -41794,7 +41794,7 @@
       <c r="I441" t="s">
         <v>1626</v>
       </c>
-      <c r="J441" s="28">
+      <c r="J441" s="24">
         <v>3000000</v>
       </c>
       <c r="K441" s="5" t="s">
@@ -41878,7 +41878,7 @@
       <c r="I442" t="s">
         <v>1626</v>
       </c>
-      <c r="J442" s="28">
+      <c r="J442" s="24">
         <v>500000</v>
       </c>
       <c r="K442" s="5" t="s">
@@ -41962,8 +41962,8 @@
       <c r="I443" t="s">
         <v>933</v>
       </c>
-      <c r="J443" s="28" t="s">
-        <v>1659</v>
+      <c r="J443" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K443" s="5" t="s">
         <v>933</v>
@@ -42044,7 +42044,7 @@
       <c r="I444" t="s">
         <v>933</v>
       </c>
-      <c r="J444" s="28">
+      <c r="J444" s="24">
         <v>50000</v>
       </c>
       <c r="K444" s="5" t="s">
@@ -42126,7 +42126,7 @@
       <c r="I445" t="s">
         <v>933</v>
       </c>
-      <c r="J445" s="28">
+      <c r="J445" s="24">
         <v>30000</v>
       </c>
       <c r="K445" s="5" t="s">
@@ -42208,7 +42208,7 @@
       <c r="I446" t="s">
         <v>1626</v>
       </c>
-      <c r="J446" s="28">
+      <c r="J446" s="24">
         <v>1000000</v>
       </c>
       <c r="K446" s="5" t="s">
@@ -42292,7 +42292,7 @@
       <c r="I447" t="s">
         <v>1626</v>
       </c>
-      <c r="J447" s="28">
+      <c r="J447" s="24">
         <v>70000</v>
       </c>
       <c r="K447" s="5" t="s">
@@ -42376,8 +42376,8 @@
       <c r="I448" t="s">
         <v>933</v>
       </c>
-      <c r="J448" s="28" t="s">
-        <v>1659</v>
+      <c r="J448" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K448" s="5" t="s">
         <v>933</v>
@@ -42458,8 +42458,8 @@
       <c r="I449" t="s">
         <v>933</v>
       </c>
-      <c r="J449" s="28" t="s">
-        <v>1659</v>
+      <c r="J449" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K449" s="5" t="s">
         <v>933</v>
@@ -42540,7 +42540,7 @@
       <c r="I450" t="s">
         <v>933</v>
       </c>
-      <c r="J450" s="28">
+      <c r="J450" s="24">
         <v>2000</v>
       </c>
       <c r="K450" s="5" t="s">
@@ -42622,7 +42622,7 @@
       <c r="I451" t="s">
         <v>933</v>
       </c>
-      <c r="J451" s="28">
+      <c r="J451" s="24">
         <v>2000</v>
       </c>
       <c r="K451" s="5" t="s">
@@ -42704,7 +42704,7 @@
       <c r="I452" t="s">
         <v>1626</v>
       </c>
-      <c r="J452" s="28">
+      <c r="J452" s="24">
         <v>70000</v>
       </c>
       <c r="K452" s="5" t="s">
@@ -42788,7 +42788,7 @@
       <c r="I453" t="s">
         <v>933</v>
       </c>
-      <c r="J453" s="28">
+      <c r="J453" s="24">
         <v>50000</v>
       </c>
       <c r="K453" s="5" t="s">
@@ -42870,7 +42870,7 @@
       <c r="I454" t="s">
         <v>933</v>
       </c>
-      <c r="J454" s="28">
+      <c r="J454" s="24">
         <v>60000</v>
       </c>
       <c r="K454" s="5" t="s">
@@ -42952,7 +42952,7 @@
       <c r="I455" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="J455" s="29">
+      <c r="J455" s="25">
         <v>10000</v>
       </c>
       <c r="K455" s="8" t="s">
@@ -43034,7 +43034,7 @@
       <c r="I456" t="s">
         <v>933</v>
       </c>
-      <c r="J456" s="28">
+      <c r="J456" s="24">
         <v>1000</v>
       </c>
       <c r="K456" s="5" t="s">
@@ -43116,7 +43116,7 @@
       <c r="I457" t="s">
         <v>933</v>
       </c>
-      <c r="J457" s="28">
+      <c r="J457" s="24">
         <v>800</v>
       </c>
       <c r="K457" s="5" t="s">
@@ -43198,7 +43198,7 @@
       <c r="I458" t="s">
         <v>933</v>
       </c>
-      <c r="J458" s="28">
+      <c r="J458" s="24">
         <v>800000</v>
       </c>
       <c r="K458" s="5" t="s">
@@ -43280,7 +43280,7 @@
       <c r="I459" t="s">
         <v>933</v>
       </c>
-      <c r="J459" s="28">
+      <c r="J459" s="24">
         <v>600000</v>
       </c>
       <c r="K459" s="5" t="s">
@@ -43362,8 +43362,8 @@
       <c r="I460" t="s">
         <v>933</v>
       </c>
-      <c r="J460" s="28" t="s">
-        <v>1659</v>
+      <c r="J460" s="24" t="s">
+        <v>1658</v>
       </c>
       <c r="K460" s="5" t="s">
         <v>933</v>
@@ -43420,26 +43420,26 @@
       <c r="A461" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B461" s="24" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C461" s="24"/>
-      <c r="D461" s="24"/>
-      <c r="E461" s="24"/>
-      <c r="F461" s="24"/>
-      <c r="G461" s="24"/>
-      <c r="H461" s="24"/>
-      <c r="I461" s="24"/>
-      <c r="J461" s="24"/>
-      <c r="K461" s="24"/>
-      <c r="L461" s="24"/>
-      <c r="M461" s="24"/>
-      <c r="N461" s="24"/>
-      <c r="O461" s="24"/>
-      <c r="P461" s="24"/>
-      <c r="Q461" s="24"/>
-      <c r="R461" s="24"/>
-      <c r="S461" s="25"/>
+      <c r="B461" s="26" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C461" s="26"/>
+      <c r="D461" s="26"/>
+      <c r="E461" s="26"/>
+      <c r="F461" s="26"/>
+      <c r="G461" s="26"/>
+      <c r="H461" s="26"/>
+      <c r="I461" s="26"/>
+      <c r="J461" s="26"/>
+      <c r="K461" s="26"/>
+      <c r="L461" s="26"/>
+      <c r="M461" s="26"/>
+      <c r="N461" s="26"/>
+      <c r="O461" s="26"/>
+      <c r="P461" s="26"/>
+      <c r="Q461" s="26"/>
+      <c r="R461" s="26"/>
+      <c r="S461" s="27"/>
       <c r="T461" s="20" t="s">
         <v>933</v>
       </c>
@@ -43464,24 +43464,24 @@
       <c r="A462" t="s">
         <v>461</v>
       </c>
-      <c r="B462" s="26"/>
-      <c r="C462" s="26"/>
-      <c r="D462" s="26"/>
-      <c r="E462" s="26"/>
-      <c r="F462" s="26"/>
-      <c r="G462" s="26"/>
-      <c r="H462" s="26"/>
-      <c r="I462" s="26"/>
-      <c r="J462" s="26"/>
-      <c r="K462" s="26"/>
-      <c r="L462" s="26"/>
-      <c r="M462" s="26"/>
-      <c r="N462" s="26"/>
-      <c r="O462" s="26"/>
-      <c r="P462" s="26"/>
-      <c r="Q462" s="26"/>
-      <c r="R462" s="26"/>
-      <c r="S462" s="27"/>
+      <c r="B462" s="28"/>
+      <c r="C462" s="28"/>
+      <c r="D462" s="28"/>
+      <c r="E462" s="28"/>
+      <c r="F462" s="28"/>
+      <c r="G462" s="28"/>
+      <c r="H462" s="28"/>
+      <c r="I462" s="28"/>
+      <c r="J462" s="28"/>
+      <c r="K462" s="28"/>
+      <c r="L462" s="28"/>
+      <c r="M462" s="28"/>
+      <c r="N462" s="28"/>
+      <c r="O462" s="28"/>
+      <c r="P462" s="28"/>
+      <c r="Q462" s="28"/>
+      <c r="R462" s="28"/>
+      <c r="S462" s="29"/>
       <c r="T462" s="5" t="s">
         <v>933</v>
       </c>
@@ -43506,24 +43506,24 @@
       <c r="A463" t="s">
         <v>467</v>
       </c>
-      <c r="B463" s="26"/>
-      <c r="C463" s="26"/>
-      <c r="D463" s="26"/>
-      <c r="E463" s="26"/>
-      <c r="F463" s="26"/>
-      <c r="G463" s="26"/>
-      <c r="H463" s="26"/>
-      <c r="I463" s="26"/>
-      <c r="J463" s="26"/>
-      <c r="K463" s="26"/>
-      <c r="L463" s="26"/>
-      <c r="M463" s="26"/>
-      <c r="N463" s="26"/>
-      <c r="O463" s="26"/>
-      <c r="P463" s="26"/>
-      <c r="Q463" s="26"/>
-      <c r="R463" s="26"/>
-      <c r="S463" s="27"/>
+      <c r="B463" s="28"/>
+      <c r="C463" s="28"/>
+      <c r="D463" s="28"/>
+      <c r="E463" s="28"/>
+      <c r="F463" s="28"/>
+      <c r="G463" s="28"/>
+      <c r="H463" s="28"/>
+      <c r="I463" s="28"/>
+      <c r="J463" s="28"/>
+      <c r="K463" s="28"/>
+      <c r="L463" s="28"/>
+      <c r="M463" s="28"/>
+      <c r="N463" s="28"/>
+      <c r="O463" s="28"/>
+      <c r="P463" s="28"/>
+      <c r="Q463" s="28"/>
+      <c r="R463" s="28"/>
+      <c r="S463" s="29"/>
       <c r="T463" s="5" t="s">
         <v>933</v>
       </c>
@@ -43548,24 +43548,24 @@
       <c r="A464" t="s">
         <v>469</v>
       </c>
-      <c r="B464" s="26"/>
-      <c r="C464" s="26"/>
-      <c r="D464" s="26"/>
-      <c r="E464" s="26"/>
-      <c r="F464" s="26"/>
-      <c r="G464" s="26"/>
-      <c r="H464" s="26"/>
-      <c r="I464" s="26"/>
-      <c r="J464" s="26"/>
-      <c r="K464" s="26"/>
-      <c r="L464" s="26"/>
-      <c r="M464" s="26"/>
-      <c r="N464" s="26"/>
-      <c r="O464" s="26"/>
-      <c r="P464" s="26"/>
-      <c r="Q464" s="26"/>
-      <c r="R464" s="26"/>
-      <c r="S464" s="27"/>
+      <c r="B464" s="28"/>
+      <c r="C464" s="28"/>
+      <c r="D464" s="28"/>
+      <c r="E464" s="28"/>
+      <c r="F464" s="28"/>
+      <c r="G464" s="28"/>
+      <c r="H464" s="28"/>
+      <c r="I464" s="28"/>
+      <c r="J464" s="28"/>
+      <c r="K464" s="28"/>
+      <c r="L464" s="28"/>
+      <c r="M464" s="28"/>
+      <c r="N464" s="28"/>
+      <c r="O464" s="28"/>
+      <c r="P464" s="28"/>
+      <c r="Q464" s="28"/>
+      <c r="R464" s="28"/>
+      <c r="S464" s="29"/>
       <c r="T464" s="5" t="s">
         <v>933</v>
       </c>
@@ -43590,24 +43590,24 @@
       <c r="A465" t="s">
         <v>462</v>
       </c>
-      <c r="B465" s="26"/>
-      <c r="C465" s="26"/>
-      <c r="D465" s="26"/>
-      <c r="E465" s="26"/>
-      <c r="F465" s="26"/>
-      <c r="G465" s="26"/>
-      <c r="H465" s="26"/>
-      <c r="I465" s="26"/>
-      <c r="J465" s="26"/>
-      <c r="K465" s="26"/>
-      <c r="L465" s="26"/>
-      <c r="M465" s="26"/>
-      <c r="N465" s="26"/>
-      <c r="O465" s="26"/>
-      <c r="P465" s="26"/>
-      <c r="Q465" s="26"/>
-      <c r="R465" s="26"/>
-      <c r="S465" s="27"/>
+      <c r="B465" s="28"/>
+      <c r="C465" s="28"/>
+      <c r="D465" s="28"/>
+      <c r="E465" s="28"/>
+      <c r="F465" s="28"/>
+      <c r="G465" s="28"/>
+      <c r="H465" s="28"/>
+      <c r="I465" s="28"/>
+      <c r="J465" s="28"/>
+      <c r="K465" s="28"/>
+      <c r="L465" s="28"/>
+      <c r="M465" s="28"/>
+      <c r="N465" s="28"/>
+      <c r="O465" s="28"/>
+      <c r="P465" s="28"/>
+      <c r="Q465" s="28"/>
+      <c r="R465" s="28"/>
+      <c r="S465" s="29"/>
       <c r="T465" s="5" t="s">
         <v>933</v>
       </c>
@@ -43632,24 +43632,24 @@
       <c r="A466" t="s">
         <v>465</v>
       </c>
-      <c r="B466" s="26"/>
-      <c r="C466" s="26"/>
-      <c r="D466" s="26"/>
-      <c r="E466" s="26"/>
-      <c r="F466" s="26"/>
-      <c r="G466" s="26"/>
-      <c r="H466" s="26"/>
-      <c r="I466" s="26"/>
-      <c r="J466" s="26"/>
-      <c r="K466" s="26"/>
-      <c r="L466" s="26"/>
-      <c r="M466" s="26"/>
-      <c r="N466" s="26"/>
-      <c r="O466" s="26"/>
-      <c r="P466" s="26"/>
-      <c r="Q466" s="26"/>
-      <c r="R466" s="26"/>
-      <c r="S466" s="27"/>
+      <c r="B466" s="28"/>
+      <c r="C466" s="28"/>
+      <c r="D466" s="28"/>
+      <c r="E466" s="28"/>
+      <c r="F466" s="28"/>
+      <c r="G466" s="28"/>
+      <c r="H466" s="28"/>
+      <c r="I466" s="28"/>
+      <c r="J466" s="28"/>
+      <c r="K466" s="28"/>
+      <c r="L466" s="28"/>
+      <c r="M466" s="28"/>
+      <c r="N466" s="28"/>
+      <c r="O466" s="28"/>
+      <c r="P466" s="28"/>
+      <c r="Q466" s="28"/>
+      <c r="R466" s="28"/>
+      <c r="S466" s="29"/>
       <c r="T466" s="5" t="s">
         <v>933</v>
       </c>
@@ -43674,24 +43674,24 @@
       <c r="A467" t="s">
         <v>466</v>
       </c>
-      <c r="B467" s="26"/>
-      <c r="C467" s="26"/>
-      <c r="D467" s="26"/>
-      <c r="E467" s="26"/>
-      <c r="F467" s="26"/>
-      <c r="G467" s="26"/>
-      <c r="H467" s="26"/>
-      <c r="I467" s="26"/>
-      <c r="J467" s="26"/>
-      <c r="K467" s="26"/>
-      <c r="L467" s="26"/>
-      <c r="M467" s="26"/>
-      <c r="N467" s="26"/>
-      <c r="O467" s="26"/>
-      <c r="P467" s="26"/>
-      <c r="Q467" s="26"/>
-      <c r="R467" s="26"/>
-      <c r="S467" s="27"/>
+      <c r="B467" s="28"/>
+      <c r="C467" s="28"/>
+      <c r="D467" s="28"/>
+      <c r="E467" s="28"/>
+      <c r="F467" s="28"/>
+      <c r="G467" s="28"/>
+      <c r="H467" s="28"/>
+      <c r="I467" s="28"/>
+      <c r="J467" s="28"/>
+      <c r="K467" s="28"/>
+      <c r="L467" s="28"/>
+      <c r="M467" s="28"/>
+      <c r="N467" s="28"/>
+      <c r="O467" s="28"/>
+      <c r="P467" s="28"/>
+      <c r="Q467" s="28"/>
+      <c r="R467" s="28"/>
+      <c r="S467" s="29"/>
       <c r="T467" s="5" t="s">
         <v>933</v>
       </c>
@@ -43716,24 +43716,24 @@
       <c r="A468" t="s">
         <v>468</v>
       </c>
-      <c r="B468" s="26"/>
-      <c r="C468" s="26"/>
-      <c r="D468" s="26"/>
-      <c r="E468" s="26"/>
-      <c r="F468" s="26"/>
-      <c r="G468" s="26"/>
-      <c r="H468" s="26"/>
-      <c r="I468" s="26"/>
-      <c r="J468" s="26"/>
-      <c r="K468" s="26"/>
-      <c r="L468" s="26"/>
-      <c r="M468" s="26"/>
-      <c r="N468" s="26"/>
-      <c r="O468" s="26"/>
-      <c r="P468" s="26"/>
-      <c r="Q468" s="26"/>
-      <c r="R468" s="26"/>
-      <c r="S468" s="27"/>
+      <c r="B468" s="28"/>
+      <c r="C468" s="28"/>
+      <c r="D468" s="28"/>
+      <c r="E468" s="28"/>
+      <c r="F468" s="28"/>
+      <c r="G468" s="28"/>
+      <c r="H468" s="28"/>
+      <c r="I468" s="28"/>
+      <c r="J468" s="28"/>
+      <c r="K468" s="28"/>
+      <c r="L468" s="28"/>
+      <c r="M468" s="28"/>
+      <c r="N468" s="28"/>
+      <c r="O468" s="28"/>
+      <c r="P468" s="28"/>
+      <c r="Q468" s="28"/>
+      <c r="R468" s="28"/>
+      <c r="S468" s="29"/>
       <c r="T468" s="5" t="s">
         <v>933</v>
       </c>
@@ -43758,24 +43758,24 @@
       <c r="A469" t="s">
         <v>470</v>
       </c>
-      <c r="B469" s="26"/>
-      <c r="C469" s="26"/>
-      <c r="D469" s="26"/>
-      <c r="E469" s="26"/>
-      <c r="F469" s="26"/>
-      <c r="G469" s="26"/>
-      <c r="H469" s="26"/>
-      <c r="I469" s="26"/>
-      <c r="J469" s="26"/>
-      <c r="K469" s="26"/>
-      <c r="L469" s="26"/>
-      <c r="M469" s="26"/>
-      <c r="N469" s="26"/>
-      <c r="O469" s="26"/>
-      <c r="P469" s="26"/>
-      <c r="Q469" s="26"/>
-      <c r="R469" s="26"/>
-      <c r="S469" s="27"/>
+      <c r="B469" s="28"/>
+      <c r="C469" s="28"/>
+      <c r="D469" s="28"/>
+      <c r="E469" s="28"/>
+      <c r="F469" s="28"/>
+      <c r="G469" s="28"/>
+      <c r="H469" s="28"/>
+      <c r="I469" s="28"/>
+      <c r="J469" s="28"/>
+      <c r="K469" s="28"/>
+      <c r="L469" s="28"/>
+      <c r="M469" s="28"/>
+      <c r="N469" s="28"/>
+      <c r="O469" s="28"/>
+      <c r="P469" s="28"/>
+      <c r="Q469" s="28"/>
+      <c r="R469" s="28"/>
+      <c r="S469" s="29"/>
       <c r="T469" s="5" t="s">
         <v>933</v>
       </c>
@@ -43800,24 +43800,24 @@
       <c r="A470" t="s">
         <v>471</v>
       </c>
-      <c r="B470" s="26"/>
-      <c r="C470" s="26"/>
-      <c r="D470" s="26"/>
-      <c r="E470" s="26"/>
-      <c r="F470" s="26"/>
-      <c r="G470" s="26"/>
-      <c r="H470" s="26"/>
-      <c r="I470" s="26"/>
-      <c r="J470" s="26"/>
-      <c r="K470" s="26"/>
-      <c r="L470" s="26"/>
-      <c r="M470" s="26"/>
-      <c r="N470" s="26"/>
-      <c r="O470" s="26"/>
-      <c r="P470" s="26"/>
-      <c r="Q470" s="26"/>
-      <c r="R470" s="26"/>
-      <c r="S470" s="27"/>
+      <c r="B470" s="28"/>
+      <c r="C470" s="28"/>
+      <c r="D470" s="28"/>
+      <c r="E470" s="28"/>
+      <c r="F470" s="28"/>
+      <c r="G470" s="28"/>
+      <c r="H470" s="28"/>
+      <c r="I470" s="28"/>
+      <c r="J470" s="28"/>
+      <c r="K470" s="28"/>
+      <c r="L470" s="28"/>
+      <c r="M470" s="28"/>
+      <c r="N470" s="28"/>
+      <c r="O470" s="28"/>
+      <c r="P470" s="28"/>
+      <c r="Q470" s="28"/>
+      <c r="R470" s="28"/>
+      <c r="S470" s="29"/>
       <c r="T470" s="5" t="s">
         <v>933</v>
       </c>
@@ -43842,24 +43842,24 @@
       <c r="A471" t="s">
         <v>472</v>
       </c>
-      <c r="B471" s="26"/>
-      <c r="C471" s="26"/>
-      <c r="D471" s="26"/>
-      <c r="E471" s="26"/>
-      <c r="F471" s="26"/>
-      <c r="G471" s="26"/>
-      <c r="H471" s="26"/>
-      <c r="I471" s="26"/>
-      <c r="J471" s="26"/>
-      <c r="K471" s="26"/>
-      <c r="L471" s="26"/>
-      <c r="M471" s="26"/>
-      <c r="N471" s="26"/>
-      <c r="O471" s="26"/>
-      <c r="P471" s="26"/>
-      <c r="Q471" s="26"/>
-      <c r="R471" s="26"/>
-      <c r="S471" s="27"/>
+      <c r="B471" s="28"/>
+      <c r="C471" s="28"/>
+      <c r="D471" s="28"/>
+      <c r="E471" s="28"/>
+      <c r="F471" s="28"/>
+      <c r="G471" s="28"/>
+      <c r="H471" s="28"/>
+      <c r="I471" s="28"/>
+      <c r="J471" s="28"/>
+      <c r="K471" s="28"/>
+      <c r="L471" s="28"/>
+      <c r="M471" s="28"/>
+      <c r="N471" s="28"/>
+      <c r="O471" s="28"/>
+      <c r="P471" s="28"/>
+      <c r="Q471" s="28"/>
+      <c r="R471" s="28"/>
+      <c r="S471" s="29"/>
       <c r="T471" s="5" t="s">
         <v>933</v>
       </c>
@@ -43884,24 +43884,24 @@
       <c r="A472" t="s">
         <v>463</v>
       </c>
-      <c r="B472" s="26"/>
-      <c r="C472" s="26"/>
-      <c r="D472" s="26"/>
-      <c r="E472" s="26"/>
-      <c r="F472" s="26"/>
-      <c r="G472" s="26"/>
-      <c r="H472" s="26"/>
-      <c r="I472" s="26"/>
-      <c r="J472" s="26"/>
-      <c r="K472" s="26"/>
-      <c r="L472" s="26"/>
-      <c r="M472" s="26"/>
-      <c r="N472" s="26"/>
-      <c r="O472" s="26"/>
-      <c r="P472" s="26"/>
-      <c r="Q472" s="26"/>
-      <c r="R472" s="26"/>
-      <c r="S472" s="27"/>
+      <c r="B472" s="28"/>
+      <c r="C472" s="28"/>
+      <c r="D472" s="28"/>
+      <c r="E472" s="28"/>
+      <c r="F472" s="28"/>
+      <c r="G472" s="28"/>
+      <c r="H472" s="28"/>
+      <c r="I472" s="28"/>
+      <c r="J472" s="28"/>
+      <c r="K472" s="28"/>
+      <c r="L472" s="28"/>
+      <c r="M472" s="28"/>
+      <c r="N472" s="28"/>
+      <c r="O472" s="28"/>
+      <c r="P472" s="28"/>
+      <c r="Q472" s="28"/>
+      <c r="R472" s="28"/>
+      <c r="S472" s="29"/>
       <c r="T472" s="5" t="s">
         <v>933</v>
       </c>
@@ -43926,24 +43926,24 @@
       <c r="A473" t="s">
         <v>464</v>
       </c>
-      <c r="B473" s="26"/>
-      <c r="C473" s="26"/>
-      <c r="D473" s="26"/>
-      <c r="E473" s="26"/>
-      <c r="F473" s="26"/>
-      <c r="G473" s="26"/>
-      <c r="H473" s="26"/>
-      <c r="I473" s="26"/>
-      <c r="J473" s="26"/>
-      <c r="K473" s="26"/>
-      <c r="L473" s="26"/>
-      <c r="M473" s="26"/>
-      <c r="N473" s="26"/>
-      <c r="O473" s="26"/>
-      <c r="P473" s="26"/>
-      <c r="Q473" s="26"/>
-      <c r="R473" s="26"/>
-      <c r="S473" s="27"/>
+      <c r="B473" s="28"/>
+      <c r="C473" s="28"/>
+      <c r="D473" s="28"/>
+      <c r="E473" s="28"/>
+      <c r="F473" s="28"/>
+      <c r="G473" s="28"/>
+      <c r="H473" s="28"/>
+      <c r="I473" s="28"/>
+      <c r="J473" s="28"/>
+      <c r="K473" s="28"/>
+      <c r="L473" s="28"/>
+      <c r="M473" s="28"/>
+      <c r="N473" s="28"/>
+      <c r="O473" s="28"/>
+      <c r="P473" s="28"/>
+      <c r="Q473" s="28"/>
+      <c r="R473" s="28"/>
+      <c r="S473" s="29"/>
       <c r="T473" s="5" t="s">
         <v>933</v>
       </c>
